--- a/AnnaDrapery_Nop/Presentation/Nop.Web/RT RBT ORDER FORM.xlsx
+++ b/AnnaDrapery_Nop/Presentation/Nop.Web/RT RBT ORDER FORM.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="ORDER FORM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ORDER FORM'!$A$1:$CR$20</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -27,6 +24,10 @@
   <si>
     <t>ROOM
 LOCATIONS</t>
+  </si>
+  <si>
+    <t>FINISHED
+LENGTH</t>
   </si>
   <si>
     <t>TOP
@@ -92,10 +93,8 @@
 WIDTH</t>
   </si>
   <si>
-    <t>NO. OF WIDTH</t>
-  </si>
-  <si>
-    <t>FINISHED LENGTH</t>
+    <t>NO. of
+WIDTHS</t>
   </si>
 </sst>
 </file>
@@ -168,6 +167,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -189,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -218,7 +218,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -227,7 +229,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -238,7 +242,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -249,7 +255,18 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -258,7 +275,91 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -271,7 +372,180 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -287,11 +561,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,11 +638,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,103 +653,202 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -454,8 +883,8 @@
       <xdr:rowOff>68581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>54763</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>100483</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>217171</xdr:rowOff>
     </xdr:to>
@@ -804,140 +1233,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IF287"/>
+  <dimension ref="A1:ID287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CB11" sqref="CB11:CR11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="1.5703125" style="1"/>
-    <col min="12" max="14" width="1.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="1.5703125" style="1"/>
-    <col min="16" max="20" width="0.85546875" style="1" customWidth="1"/>
-    <col min="21" max="28" width="1.5703125" style="1"/>
-    <col min="29" max="29" width="1.5703125" style="1" customWidth="1"/>
-    <col min="30" max="31" width="10.140625" style="1" customWidth="1"/>
-    <col min="32" max="36" width="1.5703125" style="1"/>
-    <col min="37" max="37" width="1.5703125" style="1" customWidth="1"/>
-    <col min="38" max="42" width="1.5703125" style="1"/>
-    <col min="43" max="43" width="1.5703125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="1.5703125" style="1"/>
-    <col min="45" max="46" width="1.7109375" style="1" customWidth="1"/>
-    <col min="47" max="70" width="1.5703125" style="1"/>
-    <col min="71" max="73" width="1.5703125" style="1" customWidth="1"/>
-    <col min="74" max="89" width="1.5703125" style="1"/>
-    <col min="90" max="90" width="1.7109375" style="1" customWidth="1"/>
-    <col min="91" max="118" width="1.5703125" style="1"/>
-    <col min="119" max="119" width="1.5703125" style="4"/>
-    <col min="120" max="120" width="2.140625" style="1" customWidth="1"/>
-    <col min="121" max="121" width="1.5703125" style="1"/>
-    <col min="160" max="16384" width="1.5703125" style="1"/>
+    <col min="1" max="10" width="1.5703125" style="1"/>
+    <col min="11" max="12" width="1.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" style="1"/>
+    <col min="14" max="15" width="0.85546875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="1.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.5703125" style="1"/>
+    <col min="19" max="19" width="1.7109375" style="1" customWidth="1"/>
+    <col min="20" max="38" width="1.5703125" style="1"/>
+    <col min="39" max="39" width="1.5703125" style="1" customWidth="1"/>
+    <col min="40" max="43" width="1.5703125" style="1"/>
+    <col min="44" max="44" width="1.5703125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="1.5703125" style="1"/>
+    <col min="46" max="47" width="1.7109375" style="1" customWidth="1"/>
+    <col min="48" max="69" width="1.5703125" style="1"/>
+    <col min="70" max="72" width="1.5703125" style="1" customWidth="1"/>
+    <col min="73" max="88" width="1.5703125" style="1"/>
+    <col min="89" max="89" width="1.7109375" style="1" customWidth="1"/>
+    <col min="90" max="116" width="1.5703125" style="1"/>
+    <col min="117" max="117" width="1.5703125" style="4"/>
+    <col min="118" max="118" width="2.140625" style="1" customWidth="1"/>
+    <col min="119" max="119" width="1.5703125" style="1"/>
+    <col min="158" max="16384" width="1.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:240" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
+    <row r="1" spans="1:238" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="10"/>
-      <c r="CK1" s="10"/>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="9"/>
+      <c r="BU1" s="9"/>
+      <c r="BV1" s="9"/>
+      <c r="BW1" s="9"/>
+      <c r="BX1" s="9"/>
+      <c r="BY1" s="9"/>
+      <c r="BZ1" s="9"/>
+      <c r="CA1" s="9"/>
+      <c r="CB1" s="9"/>
+      <c r="CC1" s="9"/>
+      <c r="CD1" s="9"/>
+      <c r="CE1" s="9"/>
+      <c r="CF1" s="9"/>
+      <c r="CG1" s="9"/>
+      <c r="CH1" s="9"/>
+      <c r="CI1" s="9"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="9"/>
+      <c r="CL1" s="9"/>
+      <c r="CM1" s="9"/>
+      <c r="CN1" s="9"/>
+      <c r="CO1" s="9"/>
+      <c r="CP1" s="9"/>
+      <c r="CQ1" s="9"/>
+      <c r="CR1" s="9"/>
+      <c r="CS1" s="9"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
       <c r="CV1"/>
       <c r="CW1"/>
       <c r="CX1"/>
@@ -958,8 +1387,8 @@
       <c r="DM1"/>
       <c r="DN1"/>
       <c r="DO1"/>
-      <c r="DP1"/>
-      <c r="DQ1"/>
+      <c r="FB1"/>
+      <c r="FC1"/>
       <c r="FD1"/>
       <c r="FE1"/>
       <c r="FF1"/>
@@ -1039,10 +1468,8 @@
       <c r="IB1"/>
       <c r="IC1"/>
       <c r="ID1"/>
-      <c r="IE1"/>
-      <c r="IF1"/>
     </row>
-    <row r="2" spans="1:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1079,8 +1506,8 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
       <c r="AM2"/>
       <c r="AN2"/>
       <c r="AO2"/>
@@ -1162,8 +1589,8 @@
       <c r="DM2"/>
       <c r="DN2"/>
       <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
       <c r="FD2"/>
       <c r="FE2"/>
       <c r="FF2"/>
@@ -1243,84 +1670,88 @@
       <c r="IB2"/>
       <c r="IC2"/>
       <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
     </row>
-    <row r="3" spans="1:240" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AA3" s="11" t="s">
-        <v>14</v>
+    <row r="3" spans="1:238" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="10" t="s">
+        <v>15</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="9"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="5"/>
       <c r="BM3" s="5"/>
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
       <c r="BP3" s="5"/>
       <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="18" t="s">
-        <v>3</v>
+      <c r="BR3" s="7" t="s">
+        <v>4</v>
       </c>
-      <c r="BT3" s="18"/>
-      <c r="BU3" s="18"/>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18"/>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="18"/>
-      <c r="BZ3" s="18"/>
-      <c r="CA3" s="9"/>
-      <c r="CB3" s="9"/>
-      <c r="CC3" s="9"/>
-      <c r="CD3" s="9"/>
-      <c r="CE3" s="9"/>
-      <c r="CF3" s="9"/>
-      <c r="CG3" s="9"/>
-      <c r="CH3" s="9"/>
-      <c r="CI3" s="9"/>
-      <c r="CJ3" s="9"/>
-      <c r="CK3" s="9"/>
-      <c r="CL3" s="9"/>
-      <c r="CM3" s="9"/>
-      <c r="CN3"/>
-      <c r="CO3"/>
-      <c r="CP3"/>
-      <c r="CQ3"/>
-      <c r="CR3"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="7"/>
+      <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
+      <c r="BZ3" s="8"/>
+      <c r="CA3" s="8"/>
+      <c r="CB3" s="8"/>
+      <c r="CC3" s="8"/>
+      <c r="CD3" s="8"/>
+      <c r="CE3" s="8"/>
+      <c r="CF3" s="8"/>
+      <c r="CG3" s="8"/>
+      <c r="CH3" s="8"/>
+      <c r="CI3" s="8"/>
+      <c r="CJ3" s="8"/>
+      <c r="CK3" s="8"/>
+      <c r="CL3" s="8"/>
+      <c r="CM3" s="8"/>
+      <c r="CN3" s="8"/>
+      <c r="CO3" s="8"/>
+      <c r="CP3" s="8"/>
+      <c r="CQ3" s="8"/>
+      <c r="CR3" s="8"/>
       <c r="CS3"/>
       <c r="CT3"/>
       <c r="CU3"/>
@@ -1344,8 +1775,8 @@
       <c r="DM3"/>
       <c r="DN3"/>
       <c r="DO3"/>
-      <c r="DP3"/>
-      <c r="DQ3"/>
+      <c r="FB3"/>
+      <c r="FC3"/>
       <c r="FD3"/>
       <c r="FE3"/>
       <c r="FF3"/>
@@ -1425,112 +1856,110 @@
       <c r="IB3"/>
       <c r="IC3"/>
       <c r="ID3"/>
-      <c r="IE3"/>
-      <c r="IF3"/>
     </row>
-    <row r="4" spans="1:240" s="3" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
+    <row r="4" spans="1:238" s="3" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="15" t="s">
-        <v>15</v>
+      <c r="W4" s="12" t="s">
+        <v>16</v>
       </c>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="9"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="9"/>
-      <c r="BJ4" s="9"/>
-      <c r="BK4" s="9"/>
-      <c r="BL4" s="9"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="5"/>
       <c r="BM4" s="5"/>
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="18" t="s">
-        <v>4</v>
+      <c r="BR4" s="7" t="s">
+        <v>5</v>
       </c>
-      <c r="BT4" s="18"/>
-      <c r="BU4" s="18"/>
-      <c r="BV4" s="18"/>
-      <c r="BW4" s="18"/>
-      <c r="BX4" s="18"/>
-      <c r="BY4" s="18"/>
-      <c r="BZ4" s="18"/>
-      <c r="CA4" s="9"/>
-      <c r="CB4" s="9"/>
-      <c r="CC4" s="9"/>
-      <c r="CD4" s="9"/>
-      <c r="CE4" s="9"/>
-      <c r="CF4" s="9"/>
-      <c r="CG4" s="9"/>
-      <c r="CH4" s="9"/>
-      <c r="CI4" s="9"/>
-      <c r="CJ4" s="9"/>
-      <c r="CK4" s="9"/>
-      <c r="CL4" s="9"/>
-      <c r="CM4" s="9"/>
-      <c r="CN4"/>
-      <c r="CO4"/>
-      <c r="CP4"/>
-      <c r="CQ4"/>
-      <c r="CR4"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="8"/>
+      <c r="CB4" s="8"/>
+      <c r="CC4" s="8"/>
+      <c r="CD4" s="8"/>
+      <c r="CE4" s="8"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="8"/>
+      <c r="CI4" s="8"/>
+      <c r="CJ4" s="8"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="8"/>
+      <c r="CM4" s="8"/>
+      <c r="CN4" s="8"/>
+      <c r="CO4" s="8"/>
+      <c r="CP4" s="8"/>
+      <c r="CQ4" s="8"/>
+      <c r="CR4" s="8"/>
       <c r="CS4"/>
       <c r="CT4"/>
       <c r="CU4"/>
@@ -1673,106 +2102,104 @@
       <c r="IB4"/>
       <c r="IC4"/>
       <c r="ID4"/>
-      <c r="IE4"/>
-      <c r="IF4"/>
     </row>
-    <row r="5" spans="1:240" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+    <row r="5" spans="1:238" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="9"/>
-      <c r="BJ5" s="9"/>
-      <c r="BK5" s="9"/>
-      <c r="BL5" s="9"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="5"/>
       <c r="BM5" s="5"/>
       <c r="BN5" s="5"/>
       <c r="BO5" s="5"/>
       <c r="BP5" s="5"/>
       <c r="BQ5" s="5"/>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="18"/>
-      <c r="BT5" s="18"/>
-      <c r="BU5" s="18"/>
-      <c r="BV5" s="18"/>
-      <c r="BW5" s="18"/>
-      <c r="BX5" s="18"/>
-      <c r="BY5" s="18"/>
-      <c r="BZ5" s="18"/>
-      <c r="CA5" s="9"/>
-      <c r="CB5" s="9"/>
-      <c r="CC5" s="9"/>
-      <c r="CD5" s="9"/>
-      <c r="CE5" s="9"/>
-      <c r="CF5" s="9"/>
-      <c r="CG5" s="9"/>
-      <c r="CH5" s="9"/>
-      <c r="CI5" s="9"/>
-      <c r="CJ5" s="9"/>
-      <c r="CK5" s="9"/>
-      <c r="CL5" s="9"/>
-      <c r="CM5" s="9"/>
-      <c r="CN5"/>
-      <c r="CO5"/>
-      <c r="CP5"/>
-      <c r="CQ5"/>
-      <c r="CR5"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="7"/>
+      <c r="BT5" s="7"/>
+      <c r="BU5" s="7"/>
+      <c r="BV5" s="7"/>
+      <c r="BW5" s="7"/>
+      <c r="BX5" s="7"/>
+      <c r="BY5" s="7"/>
+      <c r="BZ5" s="8"/>
+      <c r="CA5" s="8"/>
+      <c r="CB5" s="8"/>
+      <c r="CC5" s="8"/>
+      <c r="CD5" s="8"/>
+      <c r="CE5" s="8"/>
+      <c r="CF5" s="8"/>
+      <c r="CG5" s="8"/>
+      <c r="CH5" s="8"/>
+      <c r="CI5" s="8"/>
+      <c r="CJ5" s="8"/>
+      <c r="CK5" s="8"/>
+      <c r="CL5" s="8"/>
+      <c r="CM5" s="8"/>
+      <c r="CN5" s="8"/>
+      <c r="CO5" s="8"/>
+      <c r="CP5" s="8"/>
+      <c r="CQ5" s="8"/>
+      <c r="CR5" s="8"/>
       <c r="CS5"/>
       <c r="CT5"/>
       <c r="CU5"/>
@@ -1796,8 +2223,8 @@
       <c r="DM5"/>
       <c r="DN5"/>
       <c r="DO5"/>
-      <c r="DP5"/>
-      <c r="DQ5"/>
+      <c r="FB5"/>
+      <c r="FC5"/>
       <c r="FD5"/>
       <c r="FE5"/>
       <c r="FF5"/>
@@ -1877,33 +2304,31 @@
       <c r="IB5"/>
       <c r="IC5"/>
       <c r="ID5"/>
-      <c r="IE5"/>
-      <c r="IF5"/>
     </row>
-    <row r="6" spans="1:240" s="3" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
+    <row r="6" spans="1:238" s="3" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
@@ -1914,76 +2339,76 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="15" t="s">
-        <v>16</v>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="12" t="s">
+        <v>17</v>
       </c>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="5"/>
       <c r="BM6" s="5"/>
       <c r="BN6" s="5"/>
       <c r="BO6" s="5"/>
       <c r="BP6" s="5"/>
       <c r="BQ6" s="5"/>
-      <c r="BR6" s="5"/>
-      <c r="BS6" s="18" t="s">
-        <v>13</v>
+      <c r="BR6" s="7" t="s">
+        <v>14</v>
       </c>
-      <c r="BT6" s="18"/>
-      <c r="BU6" s="18"/>
-      <c r="BV6" s="18"/>
-      <c r="BW6" s="18"/>
-      <c r="BX6" s="18"/>
-      <c r="BY6" s="18"/>
-      <c r="BZ6" s="18"/>
-      <c r="CA6" s="9">
+      <c r="BS6" s="7"/>
+      <c r="BT6" s="7"/>
+      <c r="BU6" s="7"/>
+      <c r="BV6" s="7"/>
+      <c r="BW6" s="7"/>
+      <c r="BX6" s="7"/>
+      <c r="BY6" s="7"/>
+      <c r="BZ6" s="8">
         <v>1</v>
       </c>
-      <c r="CB6" s="9"/>
-      <c r="CC6" s="9"/>
-      <c r="CD6" s="9"/>
-      <c r="CE6" s="9"/>
-      <c r="CF6" s="9" t="s">
-        <v>19</v>
+      <c r="CA6" s="8"/>
+      <c r="CB6" s="8"/>
+      <c r="CC6" s="8"/>
+      <c r="CD6" s="8"/>
+      <c r="CE6" s="8" t="s">
+        <v>20</v>
       </c>
-      <c r="CG6" s="9"/>
-      <c r="CH6" s="9"/>
-      <c r="CI6" s="9">
+      <c r="CF6" s="8"/>
+      <c r="CG6" s="8"/>
+      <c r="CH6" s="8">
         <v>1</v>
       </c>
-      <c r="CJ6" s="9"/>
-      <c r="CK6" s="9"/>
-      <c r="CL6" s="9"/>
-      <c r="CM6" s="9"/>
+      <c r="CI6" s="8"/>
+      <c r="CJ6" s="8"/>
+      <c r="CK6" s="8"/>
+      <c r="CL6" s="8"/>
+      <c r="CM6"/>
       <c r="CN6"/>
       <c r="CO6"/>
       <c r="CP6"/>
@@ -2131,31 +2556,29 @@
       <c r="IB6"/>
       <c r="IC6"/>
       <c r="ID6"/>
-      <c r="IE6"/>
-      <c r="IF6"/>
     </row>
-    <row r="7" spans="1:240" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>9</v>
+    <row r="7" spans="1:238" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -2168,66 +2591,66 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9"/>
-      <c r="BF7" s="9"/>
-      <c r="BG7" s="9"/>
-      <c r="BH7" s="9"/>
-      <c r="BI7" s="9"/>
-      <c r="BJ7" s="9"/>
-      <c r="BK7" s="9"/>
-      <c r="BL7" s="9"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
       <c r="BN7" s="5"/>
       <c r="BO7" s="5"/>
       <c r="BP7" s="5"/>
       <c r="BQ7" s="5"/>
-      <c r="BR7" s="5"/>
-      <c r="BS7" s="18"/>
-      <c r="BT7" s="18"/>
-      <c r="BU7" s="18"/>
-      <c r="BV7" s="18"/>
-      <c r="BW7" s="18"/>
-      <c r="BX7" s="18"/>
-      <c r="BY7" s="18"/>
-      <c r="BZ7" s="18"/>
-      <c r="CA7" s="9"/>
-      <c r="CB7" s="9"/>
-      <c r="CC7" s="9"/>
-      <c r="CD7" s="9"/>
-      <c r="CE7" s="9"/>
-      <c r="CF7" s="9"/>
-      <c r="CG7" s="9"/>
-      <c r="CH7" s="9"/>
-      <c r="CI7" s="9"/>
-      <c r="CJ7" s="9"/>
-      <c r="CK7" s="9"/>
-      <c r="CL7" s="9"/>
-      <c r="CM7" s="9"/>
+      <c r="BR7" s="7"/>
+      <c r="BS7" s="7"/>
+      <c r="BT7" s="7"/>
+      <c r="BU7" s="7"/>
+      <c r="BV7" s="7"/>
+      <c r="BW7" s="7"/>
+      <c r="BX7" s="7"/>
+      <c r="BY7" s="7"/>
+      <c r="BZ7" s="8"/>
+      <c r="CA7" s="8"/>
+      <c r="CB7" s="8"/>
+      <c r="CC7" s="8"/>
+      <c r="CD7" s="8"/>
+      <c r="CE7" s="8"/>
+      <c r="CF7" s="8"/>
+      <c r="CG7" s="8"/>
+      <c r="CH7" s="8"/>
+      <c r="CI7" s="8"/>
+      <c r="CJ7" s="8"/>
+      <c r="CK7" s="8"/>
+      <c r="CL7" s="8"/>
+      <c r="CM7"/>
       <c r="CN7"/>
       <c r="CO7"/>
       <c r="CP7"/>
@@ -2256,8 +2679,8 @@
       <c r="DM7"/>
       <c r="DN7"/>
       <c r="DO7"/>
-      <c r="DP7"/>
-      <c r="DQ7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
       <c r="FD7"/>
       <c r="FE7"/>
       <c r="FF7"/>
@@ -2337,12 +2760,8 @@
       <c r="IB7"/>
       <c r="IC7"/>
       <c r="ID7"/>
-      <c r="IE7"/>
-      <c r="IF7"/>
     </row>
-    <row r="8" spans="1:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK8"/>
-      <c r="AL8"/>
+    <row r="8" spans="1:238" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AM8"/>
       <c r="AN8"/>
       <c r="AO8"/>
@@ -2424,8 +2843,8 @@
       <c r="DM8"/>
       <c r="DN8"/>
       <c r="DO8"/>
-      <c r="DP8"/>
-      <c r="DQ8"/>
+      <c r="FB8"/>
+      <c r="FC8"/>
       <c r="FD8"/>
       <c r="FE8"/>
       <c r="FF8"/>
@@ -2505,132 +2924,130 @@
       <c r="IB8"/>
       <c r="IC8"/>
       <c r="ID8"/>
-      <c r="IE8"/>
-      <c r="IF8"/>
     </row>
-    <row r="9" spans="1:240" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:238" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="24" t="s">
-        <v>18</v>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="15" t="s">
+        <v>19</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="44" t="s">
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AE9" s="44" t="s">
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="17" t="s">
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17" t="s">
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17" t="s">
-        <v>5</v>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="21" t="s">
+        <v>8</v>
       </c>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI9" s="39"/>
-      <c r="BJ9" s="39"/>
-      <c r="BK9" s="39"/>
-      <c r="BL9" s="39"/>
-      <c r="BM9" s="39"/>
-      <c r="BN9" s="39"/>
-      <c r="BO9" s="39"/>
-      <c r="BP9" s="39"/>
-      <c r="BQ9" s="39"/>
-      <c r="BR9" s="39"/>
-      <c r="BS9" s="39"/>
-      <c r="BT9" s="39"/>
-      <c r="BU9" s="39"/>
-      <c r="BV9" s="39"/>
-      <c r="BW9" s="39"/>
-      <c r="BX9" s="39"/>
-      <c r="BY9" s="39"/>
-      <c r="BZ9" s="39"/>
-      <c r="CA9" s="40"/>
-      <c r="CB9" s="19" t="s">
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="22"/>
+      <c r="BG9" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19"/>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19"/>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19"/>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
-      <c r="CP9" s="19"/>
-      <c r="CQ9" s="19"/>
-      <c r="CR9" s="19"/>
-      <c r="CS9" s="7"/>
-      <c r="CT9" s="7"/>
+      <c r="BH9" s="70"/>
+      <c r="BI9" s="70"/>
+      <c r="BJ9" s="70"/>
+      <c r="BK9" s="70"/>
+      <c r="BL9" s="70"/>
+      <c r="BM9" s="70"/>
+      <c r="BN9" s="70"/>
+      <c r="BO9" s="70"/>
+      <c r="BP9" s="70"/>
+      <c r="BQ9" s="70"/>
+      <c r="BR9" s="70"/>
+      <c r="BS9" s="70"/>
+      <c r="BT9" s="70"/>
+      <c r="BU9" s="70"/>
+      <c r="BV9" s="70"/>
+      <c r="BW9" s="70"/>
+      <c r="BX9" s="70"/>
+      <c r="BY9" s="70"/>
+      <c r="BZ9" s="71"/>
+      <c r="CA9" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB9" s="70"/>
+      <c r="CC9" s="70"/>
+      <c r="CD9" s="70"/>
+      <c r="CE9" s="70"/>
+      <c r="CF9" s="70"/>
+      <c r="CG9" s="70"/>
+      <c r="CH9" s="70"/>
+      <c r="CI9" s="70"/>
+      <c r="CJ9" s="70"/>
+      <c r="CK9" s="70"/>
+      <c r="CL9" s="70"/>
+      <c r="CM9" s="70"/>
+      <c r="CN9" s="70"/>
+      <c r="CO9" s="70"/>
+      <c r="CP9" s="70"/>
+      <c r="CQ9" s="70"/>
+      <c r="CR9" s="71"/>
+      <c r="CS9"/>
+      <c r="CT9"/>
       <c r="CU9"/>
       <c r="CV9"/>
       <c r="CW9"/>
@@ -2652,8 +3069,8 @@
       <c r="DM9"/>
       <c r="DN9"/>
       <c r="DO9"/>
-      <c r="DP9"/>
-      <c r="DQ9"/>
+      <c r="FB9"/>
+      <c r="FC9"/>
       <c r="FD9"/>
       <c r="FE9"/>
       <c r="FF9"/>
@@ -2733,108 +3150,106 @@
       <c r="IB9"/>
       <c r="IC9"/>
       <c r="ID9"/>
-      <c r="IE9"/>
-      <c r="IF9"/>
     </row>
-    <row r="10" spans="1:240" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="41"/>
-      <c r="BI10" s="41"/>
-      <c r="BJ10" s="41"/>
-      <c r="BK10" s="41"/>
-      <c r="BL10" s="41"/>
-      <c r="BM10" s="41"/>
-      <c r="BN10" s="41"/>
-      <c r="BO10" s="41"/>
-      <c r="BP10" s="41"/>
-      <c r="BQ10" s="41"/>
-      <c r="BR10" s="41"/>
-      <c r="BS10" s="41"/>
-      <c r="BT10" s="41"/>
-      <c r="BU10" s="41"/>
-      <c r="BV10" s="41"/>
-      <c r="BW10" s="41"/>
-      <c r="BX10" s="41"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="42"/>
-      <c r="CB10" s="19"/>
-      <c r="CC10" s="19"/>
-      <c r="CD10" s="19"/>
-      <c r="CE10" s="19"/>
-      <c r="CF10" s="19"/>
-      <c r="CG10" s="19"/>
-      <c r="CH10" s="19"/>
-      <c r="CI10" s="19"/>
-      <c r="CJ10" s="19"/>
-      <c r="CK10" s="19"/>
-      <c r="CL10" s="19"/>
-      <c r="CM10" s="19"/>
-      <c r="CN10" s="19"/>
-      <c r="CO10" s="19"/>
-      <c r="CP10" s="19"/>
-      <c r="CQ10" s="19"/>
-      <c r="CR10" s="19"/>
-      <c r="CS10" s="7"/>
-      <c r="CT10" s="7"/>
+    <row r="10" spans="1:238" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="23"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="24"/>
+      <c r="BG10" s="72"/>
+      <c r="BH10" s="73"/>
+      <c r="BI10" s="73"/>
+      <c r="BJ10" s="73"/>
+      <c r="BK10" s="73"/>
+      <c r="BL10" s="73"/>
+      <c r="BM10" s="73"/>
+      <c r="BN10" s="73"/>
+      <c r="BO10" s="73"/>
+      <c r="BP10" s="73"/>
+      <c r="BQ10" s="73"/>
+      <c r="BR10" s="73"/>
+      <c r="BS10" s="73"/>
+      <c r="BT10" s="73"/>
+      <c r="BU10" s="73"/>
+      <c r="BV10" s="73"/>
+      <c r="BW10" s="73"/>
+      <c r="BX10" s="73"/>
+      <c r="BY10" s="73"/>
+      <c r="BZ10" s="74"/>
+      <c r="CA10" s="72"/>
+      <c r="CB10" s="73"/>
+      <c r="CC10" s="73"/>
+      <c r="CD10" s="73"/>
+      <c r="CE10" s="73"/>
+      <c r="CF10" s="73"/>
+      <c r="CG10" s="73"/>
+      <c r="CH10" s="73"/>
+      <c r="CI10" s="73"/>
+      <c r="CJ10" s="73"/>
+      <c r="CK10" s="73"/>
+      <c r="CL10" s="73"/>
+      <c r="CM10" s="73"/>
+      <c r="CN10" s="73"/>
+      <c r="CO10" s="73"/>
+      <c r="CP10" s="73"/>
+      <c r="CQ10" s="73"/>
+      <c r="CR10" s="74"/>
+      <c r="CS10"/>
+      <c r="CT10"/>
       <c r="CU10"/>
       <c r="CV10"/>
       <c r="CW10"/>
@@ -2856,8 +3271,8 @@
       <c r="DM10"/>
       <c r="DN10"/>
       <c r="DO10"/>
-      <c r="DP10"/>
-      <c r="DQ10"/>
+      <c r="FB10"/>
+      <c r="FC10"/>
       <c r="FD10"/>
       <c r="FE10"/>
       <c r="FF10"/>
@@ -2937,110 +3352,108 @@
       <c r="IB10"/>
       <c r="IC10"/>
       <c r="ID10"/>
-      <c r="IE10"/>
-      <c r="IF10"/>
     </row>
-    <row r="11" spans="1:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+    <row r="11" spans="1:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>1</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="21"/>
-      <c r="BG11" s="21"/>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="16"/>
-      <c r="BK11" s="16"/>
-      <c r="BL11" s="16"/>
-      <c r="BM11" s="16"/>
-      <c r="BN11" s="16"/>
-      <c r="BO11" s="16"/>
-      <c r="BP11" s="16"/>
-      <c r="BQ11" s="16"/>
-      <c r="BR11" s="16"/>
-      <c r="BS11" s="16"/>
-      <c r="BT11" s="16"/>
-      <c r="BU11" s="16"/>
-      <c r="BV11" s="16"/>
-      <c r="BW11" s="16"/>
-      <c r="BX11" s="16"/>
-      <c r="BY11" s="16"/>
-      <c r="BZ11" s="16"/>
-      <c r="CA11" s="16"/>
-      <c r="CB11" s="16"/>
-      <c r="CC11" s="16"/>
-      <c r="CD11" s="16"/>
-      <c r="CE11" s="16"/>
-      <c r="CF11" s="16"/>
-      <c r="CG11" s="16"/>
-      <c r="CH11" s="16"/>
-      <c r="CI11" s="16"/>
-      <c r="CJ11" s="16"/>
-      <c r="CK11" s="16"/>
-      <c r="CL11" s="16"/>
-      <c r="CM11" s="16"/>
-      <c r="CN11" s="16"/>
-      <c r="CO11" s="16"/>
-      <c r="CP11" s="16"/>
-      <c r="CQ11" s="16"/>
-      <c r="CR11" s="16"/>
-      <c r="CS11" s="8"/>
-      <c r="CT11" s="8"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="46"/>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="47"/>
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="47"/>
+      <c r="BE11" s="47"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="57"/>
+      <c r="BH11" s="44"/>
+      <c r="BI11" s="44"/>
+      <c r="BJ11" s="44"/>
+      <c r="BK11" s="44"/>
+      <c r="BL11" s="44"/>
+      <c r="BM11" s="44"/>
+      <c r="BN11" s="44"/>
+      <c r="BO11" s="44"/>
+      <c r="BP11" s="44"/>
+      <c r="BQ11" s="44"/>
+      <c r="BR11" s="44"/>
+      <c r="BS11" s="44"/>
+      <c r="BT11" s="44"/>
+      <c r="BU11" s="44"/>
+      <c r="BV11" s="44"/>
+      <c r="BW11" s="44"/>
+      <c r="BX11" s="44"/>
+      <c r="BY11" s="44"/>
+      <c r="BZ11" s="58"/>
+      <c r="CA11" s="75"/>
+      <c r="CB11" s="76"/>
+      <c r="CC11" s="76"/>
+      <c r="CD11" s="76"/>
+      <c r="CE11" s="76"/>
+      <c r="CF11" s="76"/>
+      <c r="CG11" s="76"/>
+      <c r="CH11" s="76"/>
+      <c r="CI11" s="76"/>
+      <c r="CJ11" s="76"/>
+      <c r="CK11" s="76"/>
+      <c r="CL11" s="76"/>
+      <c r="CM11" s="76"/>
+      <c r="CN11" s="76"/>
+      <c r="CO11" s="76"/>
+      <c r="CP11" s="76"/>
+      <c r="CQ11" s="76"/>
+      <c r="CR11" s="77"/>
+      <c r="CS11"/>
+      <c r="CT11"/>
       <c r="CU11"/>
       <c r="CV11"/>
       <c r="CW11"/>
@@ -3062,8 +3475,8 @@
       <c r="DM11"/>
       <c r="DN11"/>
       <c r="DO11"/>
-      <c r="DP11"/>
-      <c r="DQ11"/>
+      <c r="FB11"/>
+      <c r="FC11"/>
       <c r="FD11"/>
       <c r="FE11"/>
       <c r="FF11"/>
@@ -3143,110 +3556,108 @@
       <c r="IB11"/>
       <c r="IC11"/>
       <c r="ID11"/>
-      <c r="IE11"/>
-      <c r="IF11"/>
     </row>
-    <row r="12" spans="1:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+    <row r="12" spans="1:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
         <v>2</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="21"/>
-      <c r="BD12" s="21"/>
-      <c r="BE12" s="21"/>
-      <c r="BF12" s="21"/>
-      <c r="BG12" s="21"/>
-      <c r="BH12" s="16"/>
-      <c r="BI12" s="16"/>
-      <c r="BJ12" s="16"/>
-      <c r="BK12" s="16"/>
-      <c r="BL12" s="16"/>
-      <c r="BM12" s="16"/>
-      <c r="BN12" s="16"/>
-      <c r="BO12" s="16"/>
-      <c r="BP12" s="16"/>
-      <c r="BQ12" s="16"/>
-      <c r="BR12" s="16"/>
-      <c r="BS12" s="16"/>
-      <c r="BT12" s="16"/>
-      <c r="BU12" s="16"/>
-      <c r="BV12" s="16"/>
-      <c r="BW12" s="16"/>
-      <c r="BX12" s="16"/>
-      <c r="BY12" s="16"/>
-      <c r="BZ12" s="16"/>
-      <c r="CA12" s="16"/>
-      <c r="CB12" s="16"/>
-      <c r="CC12" s="16"/>
-      <c r="CD12" s="16"/>
-      <c r="CE12" s="16"/>
-      <c r="CF12" s="16"/>
-      <c r="CG12" s="16"/>
-      <c r="CH12" s="16"/>
-      <c r="CI12" s="16"/>
-      <c r="CJ12" s="16"/>
-      <c r="CK12" s="16"/>
-      <c r="CL12" s="16"/>
-      <c r="CM12" s="16"/>
-      <c r="CN12" s="16"/>
-      <c r="CO12" s="16"/>
-      <c r="CP12" s="16"/>
-      <c r="CQ12" s="16"/>
-      <c r="CR12" s="16"/>
-      <c r="CS12" s="8"/>
-      <c r="CT12" s="8"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="35"/>
+      <c r="BB12" s="36"/>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="36"/>
+      <c r="BE12" s="36"/>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="60"/>
+      <c r="BI12" s="60"/>
+      <c r="BJ12" s="60"/>
+      <c r="BK12" s="60"/>
+      <c r="BL12" s="60"/>
+      <c r="BM12" s="60"/>
+      <c r="BN12" s="60"/>
+      <c r="BO12" s="60"/>
+      <c r="BP12" s="60"/>
+      <c r="BQ12" s="60"/>
+      <c r="BR12" s="60"/>
+      <c r="BS12" s="60"/>
+      <c r="BT12" s="60"/>
+      <c r="BU12" s="60"/>
+      <c r="BV12" s="60"/>
+      <c r="BW12" s="60"/>
+      <c r="BX12" s="60"/>
+      <c r="BY12" s="60"/>
+      <c r="BZ12" s="61"/>
+      <c r="CA12" s="65"/>
+      <c r="CB12" s="13"/>
+      <c r="CC12" s="13"/>
+      <c r="CD12" s="13"/>
+      <c r="CE12" s="13"/>
+      <c r="CF12" s="13"/>
+      <c r="CG12" s="13"/>
+      <c r="CH12" s="13"/>
+      <c r="CI12" s="13"/>
+      <c r="CJ12" s="13"/>
+      <c r="CK12" s="13"/>
+      <c r="CL12" s="13"/>
+      <c r="CM12" s="13"/>
+      <c r="CN12" s="13"/>
+      <c r="CO12" s="13"/>
+      <c r="CP12" s="13"/>
+      <c r="CQ12" s="13"/>
+      <c r="CR12" s="66"/>
+      <c r="CS12"/>
+      <c r="CT12"/>
       <c r="CU12"/>
       <c r="CV12"/>
       <c r="CW12"/>
@@ -3268,8 +3679,8 @@
       <c r="DM12"/>
       <c r="DN12"/>
       <c r="DO12"/>
-      <c r="DP12"/>
-      <c r="DQ12"/>
+      <c r="FB12"/>
+      <c r="FC12"/>
       <c r="FD12"/>
       <c r="FE12"/>
       <c r="FF12"/>
@@ -3349,110 +3760,108 @@
       <c r="IB12"/>
       <c r="IC12"/>
       <c r="ID12"/>
-      <c r="IE12"/>
-      <c r="IF12"/>
     </row>
-    <row r="13" spans="1:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+    <row r="13" spans="1:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
         <v>3</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="21"/>
-      <c r="AR13" s="21"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="21"/>
-      <c r="BG13" s="21"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="16"/>
-      <c r="BJ13" s="16"/>
-      <c r="BK13" s="16"/>
-      <c r="BL13" s="16"/>
-      <c r="BM13" s="16"/>
-      <c r="BN13" s="16"/>
-      <c r="BO13" s="16"/>
-      <c r="BP13" s="16"/>
-      <c r="BQ13" s="16"/>
-      <c r="BR13" s="16"/>
-      <c r="BS13" s="16"/>
-      <c r="BT13" s="16"/>
-      <c r="BU13" s="16"/>
-      <c r="BV13" s="16"/>
-      <c r="BW13" s="16"/>
-      <c r="BX13" s="16"/>
-      <c r="BY13" s="16"/>
-      <c r="BZ13" s="16"/>
-      <c r="CA13" s="16"/>
-      <c r="CB13" s="16"/>
-      <c r="CC13" s="16"/>
-      <c r="CD13" s="16"/>
-      <c r="CE13" s="16"/>
-      <c r="CF13" s="16"/>
-      <c r="CG13" s="16"/>
-      <c r="CH13" s="16"/>
-      <c r="CI13" s="16"/>
-      <c r="CJ13" s="16"/>
-      <c r="CK13" s="16"/>
-      <c r="CL13" s="16"/>
-      <c r="CM13" s="16"/>
-      <c r="CN13" s="16"/>
-      <c r="CO13" s="16"/>
-      <c r="CP13" s="16"/>
-      <c r="CQ13" s="16"/>
-      <c r="CR13" s="16"/>
-      <c r="CS13" s="8"/>
-      <c r="CT13" s="8"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="37"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="35"/>
+      <c r="BB13" s="36"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="60"/>
+      <c r="BI13" s="60"/>
+      <c r="BJ13" s="60"/>
+      <c r="BK13" s="60"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="60"/>
+      <c r="BN13" s="60"/>
+      <c r="BO13" s="60"/>
+      <c r="BP13" s="60"/>
+      <c r="BQ13" s="60"/>
+      <c r="BR13" s="60"/>
+      <c r="BS13" s="60"/>
+      <c r="BT13" s="60"/>
+      <c r="BU13" s="60"/>
+      <c r="BV13" s="60"/>
+      <c r="BW13" s="60"/>
+      <c r="BX13" s="60"/>
+      <c r="BY13" s="60"/>
+      <c r="BZ13" s="61"/>
+      <c r="CA13" s="65"/>
+      <c r="CB13" s="13"/>
+      <c r="CC13" s="13"/>
+      <c r="CD13" s="13"/>
+      <c r="CE13" s="13"/>
+      <c r="CF13" s="13"/>
+      <c r="CG13" s="13"/>
+      <c r="CH13" s="13"/>
+      <c r="CI13" s="13"/>
+      <c r="CJ13" s="13"/>
+      <c r="CK13" s="13"/>
+      <c r="CL13" s="13"/>
+      <c r="CM13" s="13"/>
+      <c r="CN13" s="13"/>
+      <c r="CO13" s="13"/>
+      <c r="CP13" s="13"/>
+      <c r="CQ13" s="13"/>
+      <c r="CR13" s="66"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
       <c r="CU13"/>
       <c r="CV13"/>
       <c r="CW13"/>
@@ -3474,8 +3883,8 @@
       <c r="DM13"/>
       <c r="DN13"/>
       <c r="DO13"/>
-      <c r="DP13"/>
-      <c r="DQ13"/>
+      <c r="FB13"/>
+      <c r="FC13"/>
       <c r="FD13"/>
       <c r="FE13"/>
       <c r="FF13"/>
@@ -3555,110 +3964,108 @@
       <c r="IB13"/>
       <c r="IC13"/>
       <c r="ID13"/>
-      <c r="IE13"/>
-      <c r="IF13"/>
     </row>
-    <row r="14" spans="1:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+    <row r="14" spans="1:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
         <v>4</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="16"/>
-      <c r="BK14" s="16"/>
-      <c r="BL14" s="16"/>
-      <c r="BM14" s="16"/>
-      <c r="BN14" s="16"/>
-      <c r="BO14" s="16"/>
-      <c r="BP14" s="16"/>
-      <c r="BQ14" s="16"/>
-      <c r="BR14" s="16"/>
-      <c r="BS14" s="16"/>
-      <c r="BT14" s="16"/>
-      <c r="BU14" s="16"/>
-      <c r="BV14" s="16"/>
-      <c r="BW14" s="16"/>
-      <c r="BX14" s="16"/>
-      <c r="BY14" s="16"/>
-      <c r="BZ14" s="16"/>
-      <c r="CA14" s="16"/>
-      <c r="CB14" s="16"/>
-      <c r="CC14" s="16"/>
-      <c r="CD14" s="16"/>
-      <c r="CE14" s="16"/>
-      <c r="CF14" s="16"/>
-      <c r="CG14" s="16"/>
-      <c r="CH14" s="16"/>
-      <c r="CI14" s="16"/>
-      <c r="CJ14" s="16"/>
-      <c r="CK14" s="16"/>
-      <c r="CL14" s="16"/>
-      <c r="CM14" s="16"/>
-      <c r="CN14" s="16"/>
-      <c r="CO14" s="16"/>
-      <c r="CP14" s="16"/>
-      <c r="CQ14" s="16"/>
-      <c r="CR14" s="16"/>
-      <c r="CS14" s="8"/>
-      <c r="CT14" s="8"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="37"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="36"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="36"/>
+      <c r="BD14" s="36"/>
+      <c r="BE14" s="36"/>
+      <c r="BF14" s="36"/>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="60"/>
+      <c r="BI14" s="60"/>
+      <c r="BJ14" s="60"/>
+      <c r="BK14" s="60"/>
+      <c r="BL14" s="60"/>
+      <c r="BM14" s="60"/>
+      <c r="BN14" s="60"/>
+      <c r="BO14" s="60"/>
+      <c r="BP14" s="60"/>
+      <c r="BQ14" s="60"/>
+      <c r="BR14" s="60"/>
+      <c r="BS14" s="60"/>
+      <c r="BT14" s="60"/>
+      <c r="BU14" s="60"/>
+      <c r="BV14" s="60"/>
+      <c r="BW14" s="60"/>
+      <c r="BX14" s="60"/>
+      <c r="BY14" s="60"/>
+      <c r="BZ14" s="61"/>
+      <c r="CA14" s="65"/>
+      <c r="CB14" s="13"/>
+      <c r="CC14" s="13"/>
+      <c r="CD14" s="13"/>
+      <c r="CE14" s="13"/>
+      <c r="CF14" s="13"/>
+      <c r="CG14" s="13"/>
+      <c r="CH14" s="13"/>
+      <c r="CI14" s="13"/>
+      <c r="CJ14" s="13"/>
+      <c r="CK14" s="13"/>
+      <c r="CL14" s="13"/>
+      <c r="CM14" s="13"/>
+      <c r="CN14" s="13"/>
+      <c r="CO14" s="13"/>
+      <c r="CP14" s="13"/>
+      <c r="CQ14" s="13"/>
+      <c r="CR14" s="66"/>
+      <c r="CS14"/>
+      <c r="CT14"/>
       <c r="CU14"/>
       <c r="CV14"/>
       <c r="CW14"/>
@@ -3680,8 +4087,8 @@
       <c r="DM14"/>
       <c r="DN14"/>
       <c r="DO14"/>
-      <c r="DP14"/>
-      <c r="DQ14"/>
+      <c r="FB14"/>
+      <c r="FC14"/>
       <c r="FD14"/>
       <c r="FE14"/>
       <c r="FF14"/>
@@ -3761,110 +4168,108 @@
       <c r="IB14"/>
       <c r="IC14"/>
       <c r="ID14"/>
-      <c r="IE14"/>
-      <c r="IF14"/>
     </row>
-    <row r="15" spans="1:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+    <row r="15" spans="1:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
         <v>5</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="16"/>
-      <c r="BI15" s="16"/>
-      <c r="BJ15" s="16"/>
-      <c r="BK15" s="16"/>
-      <c r="BL15" s="16"/>
-      <c r="BM15" s="16"/>
-      <c r="BN15" s="16"/>
-      <c r="BO15" s="16"/>
-      <c r="BP15" s="16"/>
-      <c r="BQ15" s="16"/>
-      <c r="BR15" s="16"/>
-      <c r="BS15" s="16"/>
-      <c r="BT15" s="16"/>
-      <c r="BU15" s="16"/>
-      <c r="BV15" s="16"/>
-      <c r="BW15" s="16"/>
-      <c r="BX15" s="16"/>
-      <c r="BY15" s="16"/>
-      <c r="BZ15" s="16"/>
-      <c r="CA15" s="16"/>
-      <c r="CB15" s="16"/>
-      <c r="CC15" s="16"/>
-      <c r="CD15" s="16"/>
-      <c r="CE15" s="16"/>
-      <c r="CF15" s="16"/>
-      <c r="CG15" s="16"/>
-      <c r="CH15" s="16"/>
-      <c r="CI15" s="16"/>
-      <c r="CJ15" s="16"/>
-      <c r="CK15" s="16"/>
-      <c r="CL15" s="16"/>
-      <c r="CM15" s="16"/>
-      <c r="CN15" s="16"/>
-      <c r="CO15" s="16"/>
-      <c r="CP15" s="16"/>
-      <c r="CQ15" s="16"/>
-      <c r="CR15" s="16"/>
-      <c r="CS15" s="8"/>
-      <c r="CT15" s="8"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="49"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="35"/>
+      <c r="BB15" s="36"/>
+      <c r="BC15" s="36"/>
+      <c r="BD15" s="36"/>
+      <c r="BE15" s="36"/>
+      <c r="BF15" s="36"/>
+      <c r="BG15" s="59"/>
+      <c r="BH15" s="60"/>
+      <c r="BI15" s="60"/>
+      <c r="BJ15" s="60"/>
+      <c r="BK15" s="60"/>
+      <c r="BL15" s="60"/>
+      <c r="BM15" s="60"/>
+      <c r="BN15" s="60"/>
+      <c r="BO15" s="60"/>
+      <c r="BP15" s="60"/>
+      <c r="BQ15" s="60"/>
+      <c r="BR15" s="60"/>
+      <c r="BS15" s="60"/>
+      <c r="BT15" s="60"/>
+      <c r="BU15" s="60"/>
+      <c r="BV15" s="60"/>
+      <c r="BW15" s="60"/>
+      <c r="BX15" s="60"/>
+      <c r="BY15" s="60"/>
+      <c r="BZ15" s="61"/>
+      <c r="CA15" s="65"/>
+      <c r="CB15" s="13"/>
+      <c r="CC15" s="13"/>
+      <c r="CD15" s="13"/>
+      <c r="CE15" s="13"/>
+      <c r="CF15" s="13"/>
+      <c r="CG15" s="13"/>
+      <c r="CH15" s="13"/>
+      <c r="CI15" s="13"/>
+      <c r="CJ15" s="13"/>
+      <c r="CK15" s="13"/>
+      <c r="CL15" s="13"/>
+      <c r="CM15" s="13"/>
+      <c r="CN15" s="13"/>
+      <c r="CO15" s="13"/>
+      <c r="CP15" s="13"/>
+      <c r="CQ15" s="13"/>
+      <c r="CR15" s="66"/>
+      <c r="CS15"/>
+      <c r="CT15"/>
       <c r="CU15"/>
       <c r="CV15"/>
       <c r="CW15"/>
@@ -3886,8 +4291,8 @@
       <c r="DM15"/>
       <c r="DN15"/>
       <c r="DO15"/>
-      <c r="DP15"/>
-      <c r="DQ15"/>
+      <c r="FB15"/>
+      <c r="FC15"/>
       <c r="FD15"/>
       <c r="FE15"/>
       <c r="FF15"/>
@@ -3967,110 +4372,108 @@
       <c r="IB15"/>
       <c r="IC15"/>
       <c r="ID15"/>
-      <c r="IE15"/>
-      <c r="IF15"/>
     </row>
-    <row r="16" spans="1:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+    <row r="16" spans="1:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
         <v>6</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="21"/>
-      <c r="BG16" s="21"/>
-      <c r="BH16" s="16"/>
-      <c r="BI16" s="16"/>
-      <c r="BJ16" s="16"/>
-      <c r="BK16" s="16"/>
-      <c r="BL16" s="16"/>
-      <c r="BM16" s="16"/>
-      <c r="BN16" s="16"/>
-      <c r="BO16" s="16"/>
-      <c r="BP16" s="16"/>
-      <c r="BQ16" s="16"/>
-      <c r="BR16" s="16"/>
-      <c r="BS16" s="16"/>
-      <c r="BT16" s="16"/>
-      <c r="BU16" s="16"/>
-      <c r="BV16" s="16"/>
-      <c r="BW16" s="16"/>
-      <c r="BX16" s="16"/>
-      <c r="BY16" s="16"/>
-      <c r="BZ16" s="16"/>
-      <c r="CA16" s="16"/>
-      <c r="CB16" s="16"/>
-      <c r="CC16" s="16"/>
-      <c r="CD16" s="16"/>
-      <c r="CE16" s="16"/>
-      <c r="CF16" s="16"/>
-      <c r="CG16" s="16"/>
-      <c r="CH16" s="16"/>
-      <c r="CI16" s="16"/>
-      <c r="CJ16" s="16"/>
-      <c r="CK16" s="16"/>
-      <c r="CL16" s="16"/>
-      <c r="CM16" s="16"/>
-      <c r="CN16" s="16"/>
-      <c r="CO16" s="16"/>
-      <c r="CP16" s="16"/>
-      <c r="CQ16" s="16"/>
-      <c r="CR16" s="16"/>
-      <c r="CS16" s="8"/>
-      <c r="CT16" s="8"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="49"/>
+      <c r="AL16" s="49"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="35"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16" s="36"/>
+      <c r="BF16" s="36"/>
+      <c r="BG16" s="59"/>
+      <c r="BH16" s="60"/>
+      <c r="BI16" s="60"/>
+      <c r="BJ16" s="60"/>
+      <c r="BK16" s="60"/>
+      <c r="BL16" s="60"/>
+      <c r="BM16" s="60"/>
+      <c r="BN16" s="60"/>
+      <c r="BO16" s="60"/>
+      <c r="BP16" s="60"/>
+      <c r="BQ16" s="60"/>
+      <c r="BR16" s="60"/>
+      <c r="BS16" s="60"/>
+      <c r="BT16" s="60"/>
+      <c r="BU16" s="60"/>
+      <c r="BV16" s="60"/>
+      <c r="BW16" s="60"/>
+      <c r="BX16" s="60"/>
+      <c r="BY16" s="60"/>
+      <c r="BZ16" s="61"/>
+      <c r="CA16" s="65"/>
+      <c r="CB16" s="13"/>
+      <c r="CC16" s="13"/>
+      <c r="CD16" s="13"/>
+      <c r="CE16" s="13"/>
+      <c r="CF16" s="13"/>
+      <c r="CG16" s="13"/>
+      <c r="CH16" s="13"/>
+      <c r="CI16" s="13"/>
+      <c r="CJ16" s="13"/>
+      <c r="CK16" s="13"/>
+      <c r="CL16" s="13"/>
+      <c r="CM16" s="13"/>
+      <c r="CN16" s="13"/>
+      <c r="CO16" s="13"/>
+      <c r="CP16" s="13"/>
+      <c r="CQ16" s="13"/>
+      <c r="CR16" s="66"/>
+      <c r="CS16"/>
+      <c r="CT16"/>
       <c r="CU16"/>
       <c r="CV16"/>
       <c r="CW16"/>
@@ -4092,8 +4495,8 @@
       <c r="DM16"/>
       <c r="DN16"/>
       <c r="DO16"/>
-      <c r="DP16"/>
-      <c r="DQ16"/>
+      <c r="FB16"/>
+      <c r="FC16"/>
       <c r="FD16"/>
       <c r="FE16"/>
       <c r="FF16"/>
@@ -4173,110 +4576,108 @@
       <c r="IB16"/>
       <c r="IC16"/>
       <c r="ID16"/>
-      <c r="IE16"/>
-      <c r="IF16"/>
     </row>
-    <row r="17" spans="1:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+    <row r="17" spans="1:238" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>7</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="43"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="16"/>
-      <c r="BI17" s="16"/>
-      <c r="BJ17" s="16"/>
-      <c r="BK17" s="16"/>
-      <c r="BL17" s="16"/>
-      <c r="BM17" s="16"/>
-      <c r="BN17" s="16"/>
-      <c r="BO17" s="16"/>
-      <c r="BP17" s="16"/>
-      <c r="BQ17" s="16"/>
-      <c r="BR17" s="16"/>
-      <c r="BS17" s="16"/>
-      <c r="BT17" s="16"/>
-      <c r="BU17" s="16"/>
-      <c r="BV17" s="16"/>
-      <c r="BW17" s="16"/>
-      <c r="BX17" s="16"/>
-      <c r="BY17" s="16"/>
-      <c r="BZ17" s="16"/>
-      <c r="CA17" s="16"/>
-      <c r="CB17" s="16"/>
-      <c r="CC17" s="16"/>
-      <c r="CD17" s="16"/>
-      <c r="CE17" s="16"/>
-      <c r="CF17" s="16"/>
-      <c r="CG17" s="16"/>
-      <c r="CH17" s="16"/>
-      <c r="CI17" s="16"/>
-      <c r="CJ17" s="16"/>
-      <c r="CK17" s="16"/>
-      <c r="CL17" s="16"/>
-      <c r="CM17" s="16"/>
-      <c r="CN17" s="16"/>
-      <c r="CO17" s="16"/>
-      <c r="CP17" s="16"/>
-      <c r="CQ17" s="16"/>
-      <c r="CR17" s="16"/>
-      <c r="CS17" s="8"/>
-      <c r="CT17" s="8"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="35"/>
+      <c r="BB17" s="36"/>
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="36"/>
+      <c r="BF17" s="36"/>
+      <c r="BG17" s="59"/>
+      <c r="BH17" s="60"/>
+      <c r="BI17" s="60"/>
+      <c r="BJ17" s="60"/>
+      <c r="BK17" s="60"/>
+      <c r="BL17" s="60"/>
+      <c r="BM17" s="60"/>
+      <c r="BN17" s="60"/>
+      <c r="BO17" s="60"/>
+      <c r="BP17" s="60"/>
+      <c r="BQ17" s="60"/>
+      <c r="BR17" s="60"/>
+      <c r="BS17" s="60"/>
+      <c r="BT17" s="60"/>
+      <c r="BU17" s="60"/>
+      <c r="BV17" s="60"/>
+      <c r="BW17" s="60"/>
+      <c r="BX17" s="60"/>
+      <c r="BY17" s="60"/>
+      <c r="BZ17" s="61"/>
+      <c r="CA17" s="65"/>
+      <c r="CB17" s="13"/>
+      <c r="CC17" s="13"/>
+      <c r="CD17" s="13"/>
+      <c r="CE17" s="13"/>
+      <c r="CF17" s="13"/>
+      <c r="CG17" s="13"/>
+      <c r="CH17" s="13"/>
+      <c r="CI17" s="13"/>
+      <c r="CJ17" s="13"/>
+      <c r="CK17" s="13"/>
+      <c r="CL17" s="13"/>
+      <c r="CM17" s="13"/>
+      <c r="CN17" s="13"/>
+      <c r="CO17" s="13"/>
+      <c r="CP17" s="13"/>
+      <c r="CQ17" s="13"/>
+      <c r="CR17" s="66"/>
+      <c r="CS17"/>
+      <c r="CT17"/>
       <c r="CU17"/>
       <c r="CV17"/>
       <c r="CW17"/>
@@ -4417,110 +4818,108 @@
       <c r="IB17"/>
       <c r="IC17"/>
       <c r="ID17"/>
-      <c r="IE17"/>
-      <c r="IF17"/>
     </row>
-    <row r="18" spans="1:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+    <row r="18" spans="1:238" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
         <v>8</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="21"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="21"/>
-      <c r="AQ18" s="21"/>
-      <c r="AR18" s="21"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
-      <c r="BB18" s="21"/>
-      <c r="BC18" s="21"/>
-      <c r="BD18" s="21"/>
-      <c r="BE18" s="21"/>
-      <c r="BF18" s="21"/>
-      <c r="BG18" s="21"/>
-      <c r="BH18" s="16"/>
-      <c r="BI18" s="16"/>
-      <c r="BJ18" s="16"/>
-      <c r="BK18" s="16"/>
-      <c r="BL18" s="16"/>
-      <c r="BM18" s="16"/>
-      <c r="BN18" s="16"/>
-      <c r="BO18" s="16"/>
-      <c r="BP18" s="16"/>
-      <c r="BQ18" s="16"/>
-      <c r="BR18" s="16"/>
-      <c r="BS18" s="16"/>
-      <c r="BT18" s="16"/>
-      <c r="BU18" s="16"/>
-      <c r="BV18" s="16"/>
-      <c r="BW18" s="16"/>
-      <c r="BX18" s="16"/>
-      <c r="BY18" s="16"/>
-      <c r="BZ18" s="16"/>
-      <c r="CA18" s="16"/>
-      <c r="CB18" s="16"/>
-      <c r="CC18" s="16"/>
-      <c r="CD18" s="16"/>
-      <c r="CE18" s="16"/>
-      <c r="CF18" s="16"/>
-      <c r="CG18" s="16"/>
-      <c r="CH18" s="16"/>
-      <c r="CI18" s="16"/>
-      <c r="CJ18" s="16"/>
-      <c r="CK18" s="16"/>
-      <c r="CL18" s="16"/>
-      <c r="CM18" s="16"/>
-      <c r="CN18" s="16"/>
-      <c r="CO18" s="16"/>
-      <c r="CP18" s="16"/>
-      <c r="CQ18" s="16"/>
-      <c r="CR18" s="16"/>
-      <c r="CS18" s="8"/>
-      <c r="CT18" s="8"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="36"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="59"/>
+      <c r="BH18" s="60"/>
+      <c r="BI18" s="60"/>
+      <c r="BJ18" s="60"/>
+      <c r="BK18" s="60"/>
+      <c r="BL18" s="60"/>
+      <c r="BM18" s="60"/>
+      <c r="BN18" s="60"/>
+      <c r="BO18" s="60"/>
+      <c r="BP18" s="60"/>
+      <c r="BQ18" s="60"/>
+      <c r="BR18" s="60"/>
+      <c r="BS18" s="60"/>
+      <c r="BT18" s="60"/>
+      <c r="BU18" s="60"/>
+      <c r="BV18" s="60"/>
+      <c r="BW18" s="60"/>
+      <c r="BX18" s="60"/>
+      <c r="BY18" s="60"/>
+      <c r="BZ18" s="61"/>
+      <c r="CA18" s="65"/>
+      <c r="CB18" s="13"/>
+      <c r="CC18" s="13"/>
+      <c r="CD18" s="13"/>
+      <c r="CE18" s="13"/>
+      <c r="CF18" s="13"/>
+      <c r="CG18" s="13"/>
+      <c r="CH18" s="13"/>
+      <c r="CI18" s="13"/>
+      <c r="CJ18" s="13"/>
+      <c r="CK18" s="13"/>
+      <c r="CL18" s="13"/>
+      <c r="CM18" s="13"/>
+      <c r="CN18" s="13"/>
+      <c r="CO18" s="13"/>
+      <c r="CP18" s="13"/>
+      <c r="CQ18" s="13"/>
+      <c r="CR18" s="66"/>
+      <c r="CS18"/>
+      <c r="CT18"/>
       <c r="CU18"/>
       <c r="CV18"/>
       <c r="CW18"/>
@@ -4661,110 +5060,108 @@
       <c r="IB18"/>
       <c r="IC18"/>
       <c r="ID18"/>
-      <c r="IE18"/>
-      <c r="IF18"/>
     </row>
-    <row r="19" spans="1:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+    <row r="19" spans="1:238" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51">
         <v>9</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="21"/>
-      <c r="AQ19" s="21"/>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
-      <c r="BF19" s="21"/>
-      <c r="BG19" s="21"/>
-      <c r="BH19" s="16"/>
-      <c r="BI19" s="16"/>
-      <c r="BJ19" s="16"/>
-      <c r="BK19" s="16"/>
-      <c r="BL19" s="16"/>
-      <c r="BM19" s="16"/>
-      <c r="BN19" s="16"/>
-      <c r="BO19" s="16"/>
-      <c r="BP19" s="16"/>
-      <c r="BQ19" s="16"/>
-      <c r="BR19" s="16"/>
-      <c r="BS19" s="16"/>
-      <c r="BT19" s="16"/>
-      <c r="BU19" s="16"/>
-      <c r="BV19" s="16"/>
-      <c r="BW19" s="16"/>
-      <c r="BX19" s="16"/>
-      <c r="BY19" s="16"/>
-      <c r="BZ19" s="16"/>
-      <c r="CA19" s="16"/>
-      <c r="CB19" s="16"/>
-      <c r="CC19" s="16"/>
-      <c r="CD19" s="16"/>
-      <c r="CE19" s="16"/>
-      <c r="CF19" s="16"/>
-      <c r="CG19" s="16"/>
-      <c r="CH19" s="16"/>
-      <c r="CI19" s="16"/>
-      <c r="CJ19" s="16"/>
-      <c r="CK19" s="16"/>
-      <c r="CL19" s="16"/>
-      <c r="CM19" s="16"/>
-      <c r="CN19" s="16"/>
-      <c r="CO19" s="16"/>
-      <c r="CP19" s="16"/>
-      <c r="CQ19" s="16"/>
-      <c r="CR19" s="16"/>
-      <c r="CS19" s="8"/>
-      <c r="CT19" s="8"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="53"/>
+      <c r="AJ19" s="53"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="53"/>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="53"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="55"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="55"/>
+      <c r="AW19" s="55"/>
+      <c r="AX19" s="55"/>
+      <c r="AY19" s="55"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="54"/>
+      <c r="BB19" s="55"/>
+      <c r="BC19" s="55"/>
+      <c r="BD19" s="55"/>
+      <c r="BE19" s="55"/>
+      <c r="BF19" s="55"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="63"/>
+      <c r="BI19" s="63"/>
+      <c r="BJ19" s="63"/>
+      <c r="BK19" s="63"/>
+      <c r="BL19" s="63"/>
+      <c r="BM19" s="63"/>
+      <c r="BN19" s="63"/>
+      <c r="BO19" s="63"/>
+      <c r="BP19" s="63"/>
+      <c r="BQ19" s="63"/>
+      <c r="BR19" s="63"/>
+      <c r="BS19" s="63"/>
+      <c r="BT19" s="63"/>
+      <c r="BU19" s="63"/>
+      <c r="BV19" s="63"/>
+      <c r="BW19" s="63"/>
+      <c r="BX19" s="63"/>
+      <c r="BY19" s="63"/>
+      <c r="BZ19" s="64"/>
+      <c r="CA19" s="67"/>
+      <c r="CB19" s="14"/>
+      <c r="CC19" s="14"/>
+      <c r="CD19" s="14"/>
+      <c r="CE19" s="14"/>
+      <c r="CF19" s="14"/>
+      <c r="CG19" s="14"/>
+      <c r="CH19" s="14"/>
+      <c r="CI19" s="14"/>
+      <c r="CJ19" s="14"/>
+      <c r="CK19" s="14"/>
+      <c r="CL19" s="14"/>
+      <c r="CM19" s="14"/>
+      <c r="CN19" s="14"/>
+      <c r="CO19" s="14"/>
+      <c r="CP19" s="14"/>
+      <c r="CQ19" s="14"/>
+      <c r="CR19" s="68"/>
+      <c r="CS19"/>
+      <c r="CT19"/>
       <c r="CU19"/>
       <c r="CV19"/>
       <c r="CW19"/>
@@ -4905,22 +5302,20 @@
       <c r="IB19"/>
       <c r="IC19"/>
       <c r="ID19"/>
-      <c r="IE19"/>
-      <c r="IF19"/>
     </row>
-    <row r="20" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:240" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:238" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5129,8 +5524,10 @@
     <row r="238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="239" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="100:240" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="98:238" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT242"/>
+      <c r="CU242"/>
       <c r="CV242"/>
       <c r="CW242"/>
       <c r="CX242"/>
@@ -5151,8 +5548,8 @@
       <c r="DM242"/>
       <c r="DN242"/>
       <c r="DO242"/>
-      <c r="DP242"/>
-      <c r="DQ242"/>
+      <c r="FB242"/>
+      <c r="FC242"/>
       <c r="FD242"/>
       <c r="FE242"/>
       <c r="FF242"/>
@@ -5232,10 +5629,10 @@
       <c r="IB242"/>
       <c r="IC242"/>
       <c r="ID242"/>
-      <c r="IE242"/>
-      <c r="IF242"/>
     </row>
-    <row r="243" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT243"/>
+      <c r="CU243"/>
       <c r="CV243"/>
       <c r="CW243"/>
       <c r="CX243"/>
@@ -5256,8 +5653,8 @@
       <c r="DM243"/>
       <c r="DN243"/>
       <c r="DO243"/>
-      <c r="DP243"/>
-      <c r="DQ243"/>
+      <c r="FB243"/>
+      <c r="FC243"/>
       <c r="FD243"/>
       <c r="FE243"/>
       <c r="FF243"/>
@@ -5337,10 +5734,10 @@
       <c r="IB243"/>
       <c r="IC243"/>
       <c r="ID243"/>
-      <c r="IE243"/>
-      <c r="IF243"/>
     </row>
-    <row r="244" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT244"/>
+      <c r="CU244"/>
       <c r="CV244"/>
       <c r="CW244"/>
       <c r="CX244"/>
@@ -5361,8 +5758,8 @@
       <c r="DM244"/>
       <c r="DN244"/>
       <c r="DO244"/>
-      <c r="DP244"/>
-      <c r="DQ244"/>
+      <c r="FB244"/>
+      <c r="FC244"/>
       <c r="FD244"/>
       <c r="FE244"/>
       <c r="FF244"/>
@@ -5442,10 +5839,10 @@
       <c r="IB244"/>
       <c r="IC244"/>
       <c r="ID244"/>
-      <c r="IE244"/>
-      <c r="IF244"/>
     </row>
-    <row r="245" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT245"/>
+      <c r="CU245"/>
       <c r="CV245"/>
       <c r="CW245"/>
       <c r="CX245"/>
@@ -5466,8 +5863,8 @@
       <c r="DM245"/>
       <c r="DN245"/>
       <c r="DO245"/>
-      <c r="DP245"/>
-      <c r="DQ245"/>
+      <c r="FB245"/>
+      <c r="FC245"/>
       <c r="FD245"/>
       <c r="FE245"/>
       <c r="FF245"/>
@@ -5547,10 +5944,10 @@
       <c r="IB245"/>
       <c r="IC245"/>
       <c r="ID245"/>
-      <c r="IE245"/>
-      <c r="IF245"/>
     </row>
-    <row r="246" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT246"/>
+      <c r="CU246"/>
       <c r="CV246"/>
       <c r="CW246"/>
       <c r="CX246"/>
@@ -5571,8 +5968,8 @@
       <c r="DM246"/>
       <c r="DN246"/>
       <c r="DO246"/>
-      <c r="DP246"/>
-      <c r="DQ246"/>
+      <c r="FB246"/>
+      <c r="FC246"/>
       <c r="FD246"/>
       <c r="FE246"/>
       <c r="FF246"/>
@@ -5652,10 +6049,10 @@
       <c r="IB246"/>
       <c r="IC246"/>
       <c r="ID246"/>
-      <c r="IE246"/>
-      <c r="IF246"/>
     </row>
-    <row r="247" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT247"/>
+      <c r="CU247"/>
       <c r="CV247"/>
       <c r="CW247"/>
       <c r="CX247"/>
@@ -5676,8 +6073,8 @@
       <c r="DM247"/>
       <c r="DN247"/>
       <c r="DO247"/>
-      <c r="DP247"/>
-      <c r="DQ247"/>
+      <c r="FB247"/>
+      <c r="FC247"/>
       <c r="FD247"/>
       <c r="FE247"/>
       <c r="FF247"/>
@@ -5757,10 +6154,10 @@
       <c r="IB247"/>
       <c r="IC247"/>
       <c r="ID247"/>
-      <c r="IE247"/>
-      <c r="IF247"/>
     </row>
-    <row r="248" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT248"/>
+      <c r="CU248"/>
       <c r="CV248"/>
       <c r="CW248"/>
       <c r="CX248"/>
@@ -5781,8 +6178,8 @@
       <c r="DM248"/>
       <c r="DN248"/>
       <c r="DO248"/>
-      <c r="DP248"/>
-      <c r="DQ248"/>
+      <c r="FB248"/>
+      <c r="FC248"/>
       <c r="FD248"/>
       <c r="FE248"/>
       <c r="FF248"/>
@@ -5862,10 +6259,10 @@
       <c r="IB248"/>
       <c r="IC248"/>
       <c r="ID248"/>
-      <c r="IE248"/>
-      <c r="IF248"/>
     </row>
-    <row r="249" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT249"/>
+      <c r="CU249"/>
       <c r="CV249"/>
       <c r="CW249"/>
       <c r="CX249"/>
@@ -5886,8 +6283,8 @@
       <c r="DM249"/>
       <c r="DN249"/>
       <c r="DO249"/>
-      <c r="DP249"/>
-      <c r="DQ249"/>
+      <c r="FB249"/>
+      <c r="FC249"/>
       <c r="FD249"/>
       <c r="FE249"/>
       <c r="FF249"/>
@@ -5967,10 +6364,10 @@
       <c r="IB249"/>
       <c r="IC249"/>
       <c r="ID249"/>
-      <c r="IE249"/>
-      <c r="IF249"/>
     </row>
-    <row r="250" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT250"/>
+      <c r="CU250"/>
       <c r="CV250"/>
       <c r="CW250"/>
       <c r="CX250"/>
@@ -5991,8 +6388,8 @@
       <c r="DM250"/>
       <c r="DN250"/>
       <c r="DO250"/>
-      <c r="DP250"/>
-      <c r="DQ250"/>
+      <c r="FB250"/>
+      <c r="FC250"/>
       <c r="FD250"/>
       <c r="FE250"/>
       <c r="FF250"/>
@@ -6072,10 +6469,10 @@
       <c r="IB250"/>
       <c r="IC250"/>
       <c r="ID250"/>
-      <c r="IE250"/>
-      <c r="IF250"/>
     </row>
-    <row r="251" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT251"/>
+      <c r="CU251"/>
       <c r="CV251"/>
       <c r="CW251"/>
       <c r="CX251"/>
@@ -6096,8 +6493,8 @@
       <c r="DM251"/>
       <c r="DN251"/>
       <c r="DO251"/>
-      <c r="DP251"/>
-      <c r="DQ251"/>
+      <c r="FB251"/>
+      <c r="FC251"/>
       <c r="FD251"/>
       <c r="FE251"/>
       <c r="FF251"/>
@@ -6177,10 +6574,10 @@
       <c r="IB251"/>
       <c r="IC251"/>
       <c r="ID251"/>
-      <c r="IE251"/>
-      <c r="IF251"/>
     </row>
-    <row r="252" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT252"/>
+      <c r="CU252"/>
       <c r="CV252"/>
       <c r="CW252"/>
       <c r="CX252"/>
@@ -6201,8 +6598,8 @@
       <c r="DM252"/>
       <c r="DN252"/>
       <c r="DO252"/>
-      <c r="DP252"/>
-      <c r="DQ252"/>
+      <c r="FB252"/>
+      <c r="FC252"/>
       <c r="FD252"/>
       <c r="FE252"/>
       <c r="FF252"/>
@@ -6282,10 +6679,10 @@
       <c r="IB252"/>
       <c r="IC252"/>
       <c r="ID252"/>
-      <c r="IE252"/>
-      <c r="IF252"/>
     </row>
-    <row r="253" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT253"/>
+      <c r="CU253"/>
       <c r="CV253"/>
       <c r="CW253"/>
       <c r="CX253"/>
@@ -6306,8 +6703,8 @@
       <c r="DM253"/>
       <c r="DN253"/>
       <c r="DO253"/>
-      <c r="DP253"/>
-      <c r="DQ253"/>
+      <c r="FB253"/>
+      <c r="FC253"/>
       <c r="FD253"/>
       <c r="FE253"/>
       <c r="FF253"/>
@@ -6387,10 +6784,10 @@
       <c r="IB253"/>
       <c r="IC253"/>
       <c r="ID253"/>
-      <c r="IE253"/>
-      <c r="IF253"/>
     </row>
-    <row r="254" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT254"/>
+      <c r="CU254"/>
       <c r="CV254"/>
       <c r="CW254"/>
       <c r="CX254"/>
@@ -6411,8 +6808,8 @@
       <c r="DM254"/>
       <c r="DN254"/>
       <c r="DO254"/>
-      <c r="DP254"/>
-      <c r="DQ254"/>
+      <c r="FB254"/>
+      <c r="FC254"/>
       <c r="FD254"/>
       <c r="FE254"/>
       <c r="FF254"/>
@@ -6492,10 +6889,10 @@
       <c r="IB254"/>
       <c r="IC254"/>
       <c r="ID254"/>
-      <c r="IE254"/>
-      <c r="IF254"/>
     </row>
-    <row r="255" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT255"/>
+      <c r="CU255"/>
       <c r="CV255"/>
       <c r="CW255"/>
       <c r="CX255"/>
@@ -6516,8 +6913,8 @@
       <c r="DM255"/>
       <c r="DN255"/>
       <c r="DO255"/>
-      <c r="DP255"/>
-      <c r="DQ255"/>
+      <c r="FB255"/>
+      <c r="FC255"/>
       <c r="FD255"/>
       <c r="FE255"/>
       <c r="FF255"/>
@@ -6597,10 +6994,10 @@
       <c r="IB255"/>
       <c r="IC255"/>
       <c r="ID255"/>
-      <c r="IE255"/>
-      <c r="IF255"/>
     </row>
-    <row r="256" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT256"/>
+      <c r="CU256"/>
       <c r="CV256"/>
       <c r="CW256"/>
       <c r="CX256"/>
@@ -6621,8 +7018,8 @@
       <c r="DM256"/>
       <c r="DN256"/>
       <c r="DO256"/>
-      <c r="DP256"/>
-      <c r="DQ256"/>
+      <c r="FB256"/>
+      <c r="FC256"/>
       <c r="FD256"/>
       <c r="FE256"/>
       <c r="FF256"/>
@@ -6702,10 +7099,10 @@
       <c r="IB256"/>
       <c r="IC256"/>
       <c r="ID256"/>
-      <c r="IE256"/>
-      <c r="IF256"/>
     </row>
-    <row r="257" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT257"/>
+      <c r="CU257"/>
       <c r="CV257"/>
       <c r="CW257"/>
       <c r="CX257"/>
@@ -6726,8 +7123,8 @@
       <c r="DM257"/>
       <c r="DN257"/>
       <c r="DO257"/>
-      <c r="DP257"/>
-      <c r="DQ257"/>
+      <c r="FB257"/>
+      <c r="FC257"/>
       <c r="FD257"/>
       <c r="FE257"/>
       <c r="FF257"/>
@@ -6807,10 +7204,10 @@
       <c r="IB257"/>
       <c r="IC257"/>
       <c r="ID257"/>
-      <c r="IE257"/>
-      <c r="IF257"/>
     </row>
-    <row r="258" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT258"/>
+      <c r="CU258"/>
       <c r="CV258"/>
       <c r="CW258"/>
       <c r="CX258"/>
@@ -6831,8 +7228,8 @@
       <c r="DM258"/>
       <c r="DN258"/>
       <c r="DO258"/>
-      <c r="DP258"/>
-      <c r="DQ258"/>
+      <c r="FB258"/>
+      <c r="FC258"/>
       <c r="FD258"/>
       <c r="FE258"/>
       <c r="FF258"/>
@@ -6912,10 +7309,10 @@
       <c r="IB258"/>
       <c r="IC258"/>
       <c r="ID258"/>
-      <c r="IE258"/>
-      <c r="IF258"/>
     </row>
-    <row r="259" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT259"/>
+      <c r="CU259"/>
       <c r="CV259"/>
       <c r="CW259"/>
       <c r="CX259"/>
@@ -6936,8 +7333,8 @@
       <c r="DM259"/>
       <c r="DN259"/>
       <c r="DO259"/>
-      <c r="DP259"/>
-      <c r="DQ259"/>
+      <c r="FB259"/>
+      <c r="FC259"/>
       <c r="FD259"/>
       <c r="FE259"/>
       <c r="FF259"/>
@@ -7017,10 +7414,10 @@
       <c r="IB259"/>
       <c r="IC259"/>
       <c r="ID259"/>
-      <c r="IE259"/>
-      <c r="IF259"/>
     </row>
-    <row r="260" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT260"/>
+      <c r="CU260"/>
       <c r="CV260"/>
       <c r="CW260"/>
       <c r="CX260"/>
@@ -7041,8 +7438,8 @@
       <c r="DM260"/>
       <c r="DN260"/>
       <c r="DO260"/>
-      <c r="DP260"/>
-      <c r="DQ260"/>
+      <c r="FB260"/>
+      <c r="FC260"/>
       <c r="FD260"/>
       <c r="FE260"/>
       <c r="FF260"/>
@@ -7122,10 +7519,10 @@
       <c r="IB260"/>
       <c r="IC260"/>
       <c r="ID260"/>
-      <c r="IE260"/>
-      <c r="IF260"/>
     </row>
-    <row r="261" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT261"/>
+      <c r="CU261"/>
       <c r="CV261"/>
       <c r="CW261"/>
       <c r="CX261"/>
@@ -7146,8 +7543,8 @@
       <c r="DM261"/>
       <c r="DN261"/>
       <c r="DO261"/>
-      <c r="DP261"/>
-      <c r="DQ261"/>
+      <c r="FB261"/>
+      <c r="FC261"/>
       <c r="FD261"/>
       <c r="FE261"/>
       <c r="FF261"/>
@@ -7227,10 +7624,10 @@
       <c r="IB261"/>
       <c r="IC261"/>
       <c r="ID261"/>
-      <c r="IE261"/>
-      <c r="IF261"/>
     </row>
-    <row r="262" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT262"/>
+      <c r="CU262"/>
       <c r="CV262"/>
       <c r="CW262"/>
       <c r="CX262"/>
@@ -7251,8 +7648,8 @@
       <c r="DM262"/>
       <c r="DN262"/>
       <c r="DO262"/>
-      <c r="DP262"/>
-      <c r="DQ262"/>
+      <c r="FB262"/>
+      <c r="FC262"/>
       <c r="FD262"/>
       <c r="FE262"/>
       <c r="FF262"/>
@@ -7332,10 +7729,10 @@
       <c r="IB262"/>
       <c r="IC262"/>
       <c r="ID262"/>
-      <c r="IE262"/>
-      <c r="IF262"/>
     </row>
-    <row r="263" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT263"/>
+      <c r="CU263"/>
       <c r="CV263"/>
       <c r="CW263"/>
       <c r="CX263"/>
@@ -7356,8 +7753,8 @@
       <c r="DM263"/>
       <c r="DN263"/>
       <c r="DO263"/>
-      <c r="DP263"/>
-      <c r="DQ263"/>
+      <c r="FB263"/>
+      <c r="FC263"/>
       <c r="FD263"/>
       <c r="FE263"/>
       <c r="FF263"/>
@@ -7437,10 +7834,10 @@
       <c r="IB263"/>
       <c r="IC263"/>
       <c r="ID263"/>
-      <c r="IE263"/>
-      <c r="IF263"/>
     </row>
-    <row r="264" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT264"/>
+      <c r="CU264"/>
       <c r="CV264"/>
       <c r="CW264"/>
       <c r="CX264"/>
@@ -7461,8 +7858,8 @@
       <c r="DM264"/>
       <c r="DN264"/>
       <c r="DO264"/>
-      <c r="DP264"/>
-      <c r="DQ264"/>
+      <c r="FB264"/>
+      <c r="FC264"/>
       <c r="FD264"/>
       <c r="FE264"/>
       <c r="FF264"/>
@@ -7542,10 +7939,10 @@
       <c r="IB264"/>
       <c r="IC264"/>
       <c r="ID264"/>
-      <c r="IE264"/>
-      <c r="IF264"/>
     </row>
-    <row r="265" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT265"/>
+      <c r="CU265"/>
       <c r="CV265"/>
       <c r="CW265"/>
       <c r="CX265"/>
@@ -7566,8 +7963,8 @@
       <c r="DM265"/>
       <c r="DN265"/>
       <c r="DO265"/>
-      <c r="DP265"/>
-      <c r="DQ265"/>
+      <c r="FB265"/>
+      <c r="FC265"/>
       <c r="FD265"/>
       <c r="FE265"/>
       <c r="FF265"/>
@@ -7647,10 +8044,10 @@
       <c r="IB265"/>
       <c r="IC265"/>
       <c r="ID265"/>
-      <c r="IE265"/>
-      <c r="IF265"/>
     </row>
-    <row r="266" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT266"/>
+      <c r="CU266"/>
       <c r="CV266"/>
       <c r="CW266"/>
       <c r="CX266"/>
@@ -7671,8 +8068,8 @@
       <c r="DM266"/>
       <c r="DN266"/>
       <c r="DO266"/>
-      <c r="DP266"/>
-      <c r="DQ266"/>
+      <c r="FB266"/>
+      <c r="FC266"/>
       <c r="FD266"/>
       <c r="FE266"/>
       <c r="FF266"/>
@@ -7752,10 +8149,10 @@
       <c r="IB266"/>
       <c r="IC266"/>
       <c r="ID266"/>
-      <c r="IE266"/>
-      <c r="IF266"/>
     </row>
-    <row r="267" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT267"/>
+      <c r="CU267"/>
       <c r="CV267"/>
       <c r="CW267"/>
       <c r="CX267"/>
@@ -7776,8 +8173,8 @@
       <c r="DM267"/>
       <c r="DN267"/>
       <c r="DO267"/>
-      <c r="DP267"/>
-      <c r="DQ267"/>
+      <c r="FB267"/>
+      <c r="FC267"/>
       <c r="FD267"/>
       <c r="FE267"/>
       <c r="FF267"/>
@@ -7857,10 +8254,10 @@
       <c r="IB267"/>
       <c r="IC267"/>
       <c r="ID267"/>
-      <c r="IE267"/>
-      <c r="IF267"/>
     </row>
-    <row r="268" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT268"/>
+      <c r="CU268"/>
       <c r="CV268"/>
       <c r="CW268"/>
       <c r="CX268"/>
@@ -7881,8 +8278,8 @@
       <c r="DM268"/>
       <c r="DN268"/>
       <c r="DO268"/>
-      <c r="DP268"/>
-      <c r="DQ268"/>
+      <c r="FB268"/>
+      <c r="FC268"/>
       <c r="FD268"/>
       <c r="FE268"/>
       <c r="FF268"/>
@@ -7962,10 +8359,10 @@
       <c r="IB268"/>
       <c r="IC268"/>
       <c r="ID268"/>
-      <c r="IE268"/>
-      <c r="IF268"/>
     </row>
-    <row r="269" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT269"/>
+      <c r="CU269"/>
       <c r="CV269"/>
       <c r="CW269"/>
       <c r="CX269"/>
@@ -7986,8 +8383,8 @@
       <c r="DM269"/>
       <c r="DN269"/>
       <c r="DO269"/>
-      <c r="DP269"/>
-      <c r="DQ269"/>
+      <c r="FB269"/>
+      <c r="FC269"/>
       <c r="FD269"/>
       <c r="FE269"/>
       <c r="FF269"/>
@@ -8067,10 +8464,10 @@
       <c r="IB269"/>
       <c r="IC269"/>
       <c r="ID269"/>
-      <c r="IE269"/>
-      <c r="IF269"/>
     </row>
-    <row r="270" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT270"/>
+      <c r="CU270"/>
       <c r="CV270"/>
       <c r="CW270"/>
       <c r="CX270"/>
@@ -8091,8 +8488,8 @@
       <c r="DM270"/>
       <c r="DN270"/>
       <c r="DO270"/>
-      <c r="DP270"/>
-      <c r="DQ270"/>
+      <c r="FB270"/>
+      <c r="FC270"/>
       <c r="FD270"/>
       <c r="FE270"/>
       <c r="FF270"/>
@@ -8172,10 +8569,10 @@
       <c r="IB270"/>
       <c r="IC270"/>
       <c r="ID270"/>
-      <c r="IE270"/>
-      <c r="IF270"/>
     </row>
-    <row r="271" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT271"/>
+      <c r="CU271"/>
       <c r="CV271"/>
       <c r="CW271"/>
       <c r="CX271"/>
@@ -8196,8 +8593,8 @@
       <c r="DM271"/>
       <c r="DN271"/>
       <c r="DO271"/>
-      <c r="DP271"/>
-      <c r="DQ271"/>
+      <c r="FB271"/>
+      <c r="FC271"/>
       <c r="FD271"/>
       <c r="FE271"/>
       <c r="FF271"/>
@@ -8277,10 +8674,10 @@
       <c r="IB271"/>
       <c r="IC271"/>
       <c r="ID271"/>
-      <c r="IE271"/>
-      <c r="IF271"/>
     </row>
-    <row r="272" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT272"/>
+      <c r="CU272"/>
       <c r="CV272"/>
       <c r="CW272"/>
       <c r="CX272"/>
@@ -8301,8 +8698,8 @@
       <c r="DM272"/>
       <c r="DN272"/>
       <c r="DO272"/>
-      <c r="DP272"/>
-      <c r="DQ272"/>
+      <c r="FB272"/>
+      <c r="FC272"/>
       <c r="FD272"/>
       <c r="FE272"/>
       <c r="FF272"/>
@@ -8382,10 +8779,10 @@
       <c r="IB272"/>
       <c r="IC272"/>
       <c r="ID272"/>
-      <c r="IE272"/>
-      <c r="IF272"/>
     </row>
-    <row r="273" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT273"/>
+      <c r="CU273"/>
       <c r="CV273"/>
       <c r="CW273"/>
       <c r="CX273"/>
@@ -8406,8 +8803,8 @@
       <c r="DM273"/>
       <c r="DN273"/>
       <c r="DO273"/>
-      <c r="DP273"/>
-      <c r="DQ273"/>
+      <c r="FB273"/>
+      <c r="FC273"/>
       <c r="FD273"/>
       <c r="FE273"/>
       <c r="FF273"/>
@@ -8487,10 +8884,10 @@
       <c r="IB273"/>
       <c r="IC273"/>
       <c r="ID273"/>
-      <c r="IE273"/>
-      <c r="IF273"/>
     </row>
-    <row r="274" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT274"/>
+      <c r="CU274"/>
       <c r="CV274"/>
       <c r="CW274"/>
       <c r="CX274"/>
@@ -8511,8 +8908,8 @@
       <c r="DM274"/>
       <c r="DN274"/>
       <c r="DO274"/>
-      <c r="DP274"/>
-      <c r="DQ274"/>
+      <c r="FB274"/>
+      <c r="FC274"/>
       <c r="FD274"/>
       <c r="FE274"/>
       <c r="FF274"/>
@@ -8592,10 +8989,10 @@
       <c r="IB274"/>
       <c r="IC274"/>
       <c r="ID274"/>
-      <c r="IE274"/>
-      <c r="IF274"/>
     </row>
-    <row r="275" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT275"/>
+      <c r="CU275"/>
       <c r="CV275"/>
       <c r="CW275"/>
       <c r="CX275"/>
@@ -8616,8 +9013,8 @@
       <c r="DM275"/>
       <c r="DN275"/>
       <c r="DO275"/>
-      <c r="DP275"/>
-      <c r="DQ275"/>
+      <c r="FB275"/>
+      <c r="FC275"/>
       <c r="FD275"/>
       <c r="FE275"/>
       <c r="FF275"/>
@@ -8697,10 +9094,10 @@
       <c r="IB275"/>
       <c r="IC275"/>
       <c r="ID275"/>
-      <c r="IE275"/>
-      <c r="IF275"/>
     </row>
-    <row r="276" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT276"/>
+      <c r="CU276"/>
       <c r="CV276"/>
       <c r="CW276"/>
       <c r="CX276"/>
@@ -8721,8 +9118,8 @@
       <c r="DM276"/>
       <c r="DN276"/>
       <c r="DO276"/>
-      <c r="DP276"/>
-      <c r="DQ276"/>
+      <c r="FB276"/>
+      <c r="FC276"/>
       <c r="FD276"/>
       <c r="FE276"/>
       <c r="FF276"/>
@@ -8802,10 +9199,10 @@
       <c r="IB276"/>
       <c r="IC276"/>
       <c r="ID276"/>
-      <c r="IE276"/>
-      <c r="IF276"/>
     </row>
-    <row r="277" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT277"/>
+      <c r="CU277"/>
       <c r="CV277"/>
       <c r="CW277"/>
       <c r="CX277"/>
@@ -8826,8 +9223,8 @@
       <c r="DM277"/>
       <c r="DN277"/>
       <c r="DO277"/>
-      <c r="DP277"/>
-      <c r="DQ277"/>
+      <c r="FB277"/>
+      <c r="FC277"/>
       <c r="FD277"/>
       <c r="FE277"/>
       <c r="FF277"/>
@@ -8907,10 +9304,10 @@
       <c r="IB277"/>
       <c r="IC277"/>
       <c r="ID277"/>
-      <c r="IE277"/>
-      <c r="IF277"/>
     </row>
-    <row r="278" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT278"/>
+      <c r="CU278"/>
       <c r="CV278"/>
       <c r="CW278"/>
       <c r="CX278"/>
@@ -8931,8 +9328,8 @@
       <c r="DM278"/>
       <c r="DN278"/>
       <c r="DO278"/>
-      <c r="DP278"/>
-      <c r="DQ278"/>
+      <c r="FB278"/>
+      <c r="FC278"/>
       <c r="FD278"/>
       <c r="FE278"/>
       <c r="FF278"/>
@@ -9012,10 +9409,10 @@
       <c r="IB278"/>
       <c r="IC278"/>
       <c r="ID278"/>
-      <c r="IE278"/>
-      <c r="IF278"/>
     </row>
-    <row r="279" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT279"/>
+      <c r="CU279"/>
       <c r="CV279"/>
       <c r="CW279"/>
       <c r="CX279"/>
@@ -9036,8 +9433,8 @@
       <c r="DM279"/>
       <c r="DN279"/>
       <c r="DO279"/>
-      <c r="DP279"/>
-      <c r="DQ279"/>
+      <c r="FB279"/>
+      <c r="FC279"/>
       <c r="FD279"/>
       <c r="FE279"/>
       <c r="FF279"/>
@@ -9117,10 +9514,10 @@
       <c r="IB279"/>
       <c r="IC279"/>
       <c r="ID279"/>
-      <c r="IE279"/>
-      <c r="IF279"/>
     </row>
-    <row r="280" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT280"/>
+      <c r="CU280"/>
       <c r="CV280"/>
       <c r="CW280"/>
       <c r="CX280"/>
@@ -9141,8 +9538,8 @@
       <c r="DM280"/>
       <c r="DN280"/>
       <c r="DO280"/>
-      <c r="DP280"/>
-      <c r="DQ280"/>
+      <c r="FB280"/>
+      <c r="FC280"/>
       <c r="FD280"/>
       <c r="FE280"/>
       <c r="FF280"/>
@@ -9222,10 +9619,10 @@
       <c r="IB280"/>
       <c r="IC280"/>
       <c r="ID280"/>
-      <c r="IE280"/>
-      <c r="IF280"/>
     </row>
-    <row r="281" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT281"/>
+      <c r="CU281"/>
       <c r="CV281"/>
       <c r="CW281"/>
       <c r="CX281"/>
@@ -9246,8 +9643,8 @@
       <c r="DM281"/>
       <c r="DN281"/>
       <c r="DO281"/>
-      <c r="DP281"/>
-      <c r="DQ281"/>
+      <c r="FB281"/>
+      <c r="FC281"/>
       <c r="FD281"/>
       <c r="FE281"/>
       <c r="FF281"/>
@@ -9327,10 +9724,10 @@
       <c r="IB281"/>
       <c r="IC281"/>
       <c r="ID281"/>
-      <c r="IE281"/>
-      <c r="IF281"/>
     </row>
-    <row r="282" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT282"/>
+      <c r="CU282"/>
       <c r="CV282"/>
       <c r="CW282"/>
       <c r="CX282"/>
@@ -9351,8 +9748,8 @@
       <c r="DM282"/>
       <c r="DN282"/>
       <c r="DO282"/>
-      <c r="DP282"/>
-      <c r="DQ282"/>
+      <c r="FB282"/>
+      <c r="FC282"/>
       <c r="FD282"/>
       <c r="FE282"/>
       <c r="FF282"/>
@@ -9432,10 +9829,10 @@
       <c r="IB282"/>
       <c r="IC282"/>
       <c r="ID282"/>
-      <c r="IE282"/>
-      <c r="IF282"/>
     </row>
-    <row r="283" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT283"/>
+      <c r="CU283"/>
       <c r="CV283"/>
       <c r="CW283"/>
       <c r="CX283"/>
@@ -9456,8 +9853,8 @@
       <c r="DM283"/>
       <c r="DN283"/>
       <c r="DO283"/>
-      <c r="DP283"/>
-      <c r="DQ283"/>
+      <c r="FB283"/>
+      <c r="FC283"/>
       <c r="FD283"/>
       <c r="FE283"/>
       <c r="FF283"/>
@@ -9537,10 +9934,10 @@
       <c r="IB283"/>
       <c r="IC283"/>
       <c r="ID283"/>
-      <c r="IE283"/>
-      <c r="IF283"/>
     </row>
-    <row r="284" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT284"/>
+      <c r="CU284"/>
       <c r="CV284"/>
       <c r="CW284"/>
       <c r="CX284"/>
@@ -9561,8 +9958,8 @@
       <c r="DM284"/>
       <c r="DN284"/>
       <c r="DO284"/>
-      <c r="DP284"/>
-      <c r="DQ284"/>
+      <c r="FB284"/>
+      <c r="FC284"/>
       <c r="FD284"/>
       <c r="FE284"/>
       <c r="FF284"/>
@@ -9642,10 +10039,10 @@
       <c r="IB284"/>
       <c r="IC284"/>
       <c r="ID284"/>
-      <c r="IE284"/>
-      <c r="IF284"/>
     </row>
-    <row r="285" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT285"/>
+      <c r="CU285"/>
       <c r="CV285"/>
       <c r="CW285"/>
       <c r="CX285"/>
@@ -9666,8 +10063,8 @@
       <c r="DM285"/>
       <c r="DN285"/>
       <c r="DO285"/>
-      <c r="DP285"/>
-      <c r="DQ285"/>
+      <c r="FB285"/>
+      <c r="FC285"/>
       <c r="FD285"/>
       <c r="FE285"/>
       <c r="FF285"/>
@@ -9747,10 +10144,10 @@
       <c r="IB285"/>
       <c r="IC285"/>
       <c r="ID285"/>
-      <c r="IE285"/>
-      <c r="IF285"/>
     </row>
-    <row r="286" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT286"/>
+      <c r="CU286"/>
       <c r="CV286"/>
       <c r="CW286"/>
       <c r="CX286"/>
@@ -9771,8 +10168,8 @@
       <c r="DM286"/>
       <c r="DN286"/>
       <c r="DO286"/>
-      <c r="DP286"/>
-      <c r="DQ286"/>
+      <c r="FB286"/>
+      <c r="FC286"/>
       <c r="FD286"/>
       <c r="FE286"/>
       <c r="FF286"/>
@@ -9852,10 +10249,10 @@
       <c r="IB286"/>
       <c r="IC286"/>
       <c r="ID286"/>
-      <c r="IE286"/>
-      <c r="IF286"/>
     </row>
-    <row r="287" spans="100:240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="98:238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT287"/>
+      <c r="CU287"/>
       <c r="CV287"/>
       <c r="CW287"/>
       <c r="CX287"/>
@@ -9876,8 +10273,8 @@
       <c r="DM287"/>
       <c r="DN287"/>
       <c r="DO287"/>
-      <c r="DP287"/>
-      <c r="DQ287"/>
+      <c r="FB287"/>
+      <c r="FC287"/>
       <c r="FD287"/>
       <c r="FE287"/>
       <c r="FF287"/>
@@ -9957,134 +10354,148 @@
       <c r="IB287"/>
       <c r="IC287"/>
       <c r="ID287"/>
-      <c r="IE287"/>
-      <c r="IF287"/>
     </row>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="BH9:CA10"/>
-    <mergeCell ref="AT19:AZ19"/>
-    <mergeCell ref="AT17:AZ17"/>
-    <mergeCell ref="AT18:AZ18"/>
-    <mergeCell ref="AT16:AZ16"/>
-    <mergeCell ref="AT14:AZ14"/>
-    <mergeCell ref="AT15:AZ15"/>
-    <mergeCell ref="AT13:AZ13"/>
-    <mergeCell ref="BA13:BG13"/>
-    <mergeCell ref="BA19:BG19"/>
-    <mergeCell ref="BA18:BG18"/>
-    <mergeCell ref="BA17:BG17"/>
-    <mergeCell ref="BA11:BG11"/>
-    <mergeCell ref="AT12:AZ12"/>
-    <mergeCell ref="BA12:BG12"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="BH11:CA11"/>
-    <mergeCell ref="BH12:CA12"/>
-    <mergeCell ref="BH13:CA13"/>
-    <mergeCell ref="BH14:CA14"/>
-    <mergeCell ref="BH15:CA15"/>
-    <mergeCell ref="BH16:CA16"/>
-    <mergeCell ref="BH17:CA17"/>
-    <mergeCell ref="BH18:CA18"/>
-    <mergeCell ref="BH19:CA19"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AM14:AS14"/>
+  <mergeCells count="136">
+    <mergeCell ref="CA16:CR16"/>
+    <mergeCell ref="CA17:CR17"/>
+    <mergeCell ref="CA18:CR18"/>
+    <mergeCell ref="CA19:CR19"/>
+    <mergeCell ref="BG9:BZ10"/>
+    <mergeCell ref="AU19:AZ19"/>
+    <mergeCell ref="AU17:AZ17"/>
+    <mergeCell ref="AU18:AZ18"/>
+    <mergeCell ref="AU16:AZ16"/>
+    <mergeCell ref="AU14:AZ14"/>
+    <mergeCell ref="AU15:AZ15"/>
+    <mergeCell ref="CA12:CR12"/>
+    <mergeCell ref="CA13:CR13"/>
+    <mergeCell ref="CA14:CR14"/>
+    <mergeCell ref="CA15:CR15"/>
+    <mergeCell ref="CA9:CR10"/>
+    <mergeCell ref="BA19:BF19"/>
+    <mergeCell ref="BA18:BF18"/>
+    <mergeCell ref="BA17:BF17"/>
+    <mergeCell ref="BA16:BF16"/>
+    <mergeCell ref="CA11:CR11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="AI19:AN19"/>
+    <mergeCell ref="AO19:AT19"/>
+    <mergeCell ref="BG11:BZ11"/>
+    <mergeCell ref="BG12:BZ12"/>
+    <mergeCell ref="BG13:BZ13"/>
+    <mergeCell ref="BG14:BZ14"/>
+    <mergeCell ref="BG15:BZ15"/>
+    <mergeCell ref="BG16:BZ16"/>
+    <mergeCell ref="BG17:BZ17"/>
+    <mergeCell ref="BG18:BZ18"/>
+    <mergeCell ref="BG19:BZ19"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="AO17:AT17"/>
+    <mergeCell ref="AO14:AT14"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="AO15:AT15"/>
+    <mergeCell ref="AI18:AN18"/>
+    <mergeCell ref="AO18:AT18"/>
+    <mergeCell ref="AC14:AH14"/>
+    <mergeCell ref="AC15:AH15"/>
+    <mergeCell ref="AC16:AH16"/>
+    <mergeCell ref="AC17:AH17"/>
+    <mergeCell ref="AC18:AH18"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="AO16:AT16"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="AU13:AZ13"/>
+    <mergeCell ref="BA13:BF13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="AU11:AZ11"/>
+    <mergeCell ref="BA11:BF11"/>
+    <mergeCell ref="AU12:AZ12"/>
+    <mergeCell ref="BA12:BF12"/>
+    <mergeCell ref="BA15:BF15"/>
+    <mergeCell ref="BA14:BF14"/>
+    <mergeCell ref="R15:W15"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="O19:U19"/>
-    <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="AF19:AL19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="O18:U18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="O17:U17"/>
-    <mergeCell ref="AF17:AL17"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="C9:N10"/>
-    <mergeCell ref="O9:U10"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="C12:N12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="O14:U14"/>
-    <mergeCell ref="O15:U15"/>
-    <mergeCell ref="O12:U12"/>
-    <mergeCell ref="BA16:BG16"/>
-    <mergeCell ref="BA15:BG15"/>
-    <mergeCell ref="BA14:BG14"/>
-    <mergeCell ref="AF15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="O16:U16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="V16:AC16"/>
-    <mergeCell ref="V17:AC17"/>
-    <mergeCell ref="V18:AC18"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="O13:U13"/>
-    <mergeCell ref="AF16:AL16"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT11:AZ11"/>
-    <mergeCell ref="AF18:AL18"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AF11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AF12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="V19:AC19"/>
-    <mergeCell ref="AF9:AL10"/>
-    <mergeCell ref="AM9:AS10"/>
-    <mergeCell ref="AT9:AZ10"/>
-    <mergeCell ref="BA9:BG10"/>
-    <mergeCell ref="BS3:BZ3"/>
-    <mergeCell ref="BS4:BZ5"/>
-    <mergeCell ref="BS6:BZ7"/>
-    <mergeCell ref="CA6:CE7"/>
-    <mergeCell ref="CB9:CR10"/>
-    <mergeCell ref="CB11:CR11"/>
-    <mergeCell ref="CB12:CR12"/>
-    <mergeCell ref="CB13:CR13"/>
-    <mergeCell ref="CB14:CR14"/>
-    <mergeCell ref="CB15:CR15"/>
-    <mergeCell ref="CB16:CR16"/>
-    <mergeCell ref="CB17:CR17"/>
-    <mergeCell ref="CB18:CR18"/>
-    <mergeCell ref="CB19:CR19"/>
-    <mergeCell ref="V9:AC10"/>
-    <mergeCell ref="V11:AC11"/>
-    <mergeCell ref="V12:AC12"/>
-    <mergeCell ref="V13:AC13"/>
-    <mergeCell ref="V14:AC14"/>
-    <mergeCell ref="CF6:CH7"/>
-    <mergeCell ref="CI6:CM7"/>
-    <mergeCell ref="A1:CU1"/>
-    <mergeCell ref="AA3:AK3"/>
-    <mergeCell ref="A4:T5"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="AC4:AK5"/>
-    <mergeCell ref="AF6:AK7"/>
-    <mergeCell ref="AM3:BL3"/>
-    <mergeCell ref="AM4:BL5"/>
-    <mergeCell ref="AM6:BL7"/>
-    <mergeCell ref="CA3:CM3"/>
-    <mergeCell ref="CA4:CM5"/>
+    <mergeCell ref="AO13:AT13"/>
+    <mergeCell ref="X9:AB10"/>
+    <mergeCell ref="AC9:AH10"/>
+    <mergeCell ref="AC11:AH11"/>
+    <mergeCell ref="AC12:AH12"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="AO11:AT11"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="AO12:AT12"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="R9:W10"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="C9:L10"/>
+    <mergeCell ref="M9:Q10"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="AI9:AN10"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:AZ10"/>
+    <mergeCell ref="BA9:BF10"/>
+    <mergeCell ref="AC19:AH19"/>
+    <mergeCell ref="BR3:BY3"/>
+    <mergeCell ref="BR4:BY5"/>
+    <mergeCell ref="BR6:BY7"/>
+    <mergeCell ref="BZ6:CD7"/>
+    <mergeCell ref="CE6:CG7"/>
+    <mergeCell ref="CH6:CL7"/>
+    <mergeCell ref="A1:CS1"/>
+    <mergeCell ref="U3:AM3"/>
+    <mergeCell ref="A4:P5"/>
+    <mergeCell ref="W4:AM5"/>
+    <mergeCell ref="AI6:AM7"/>
+    <mergeCell ref="AO3:BK3"/>
+    <mergeCell ref="AO4:BK5"/>
+    <mergeCell ref="AO6:BK7"/>
+    <mergeCell ref="BZ3:CR3"/>
+    <mergeCell ref="BZ4:CR5"/>
   </mergeCells>
-  <pageMargins left="0.3" right="0.3" top="0.2" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.2" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>